--- a/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
+++ b/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KucharJan\Documents\GitHub\ProjektPXPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA67E52-3C76-481A-9DC3-C2DCB0286BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF1F789-7440-444E-B589-EA63DBD71EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Spuštění webu a zahájení rezervací</t>
   </si>
   <si>
-    <t>Milník 3</t>
-  </si>
-  <si>
     <t>Přihlášení na wordpress</t>
   </si>
   <si>
@@ -386,12 +383,6 @@
     <t>Výběr a nastavení pluginů pro rezervace</t>
   </si>
   <si>
-    <t>Revize funkčnosti webu a návrhy na úpravy</t>
-  </si>
-  <si>
-    <t>Testování a příprava na spuštění</t>
-  </si>
-  <si>
     <t>David Macháček</t>
   </si>
   <si>
@@ -411,6 +402,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vytvoření webových stránek na platformě WordPress. Implementace systému pro online rezervace vstupenek na maturitní ples. Integrace informací o plesu, programu, místě konání a dalších důležitých detailech. </t>
+  </si>
+  <si>
+    <t>Revize funkčnosti webu a návrhy na úpravy  a testování a příprava na spuštění</t>
   </si>
 </sst>
 </file>
@@ -687,7 +681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,8 +736,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -995,6 +1001,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1022,7 +1204,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1052,9 +1234,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1062,16 +1241,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
@@ -1129,12 +1299,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1240,75 +1404,72 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1328,6 +1489,109 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2023,505 +2287,510 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="65" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="65" customWidth="1"/>
-    <col min="8" max="9" width="0" style="65" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" style="63" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="63" hidden="1"/>
+    <col min="1" max="1" width="22" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="59" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="59" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="59" customWidth="1"/>
+    <col min="8" max="9" width="0" style="59" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="57" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="57" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="93"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="93"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="93"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="101"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="101"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="101"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="67" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+    </row>
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+    </row>
+    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="94"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+    </row>
+    <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="94"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="67">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="68">
+        <v>45599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="68">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="68">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="67">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="96"/>
+      <c r="E41" s="78"/>
+    </row>
+    <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="96"/>
+      <c r="E42" s="78"/>
+    </row>
+    <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="96"/>
+      <c r="E43" s="78"/>
+    </row>
+    <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="96"/>
+      <c r="E44" s="78"/>
+    </row>
+    <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="82"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="75">
+        <v>0</v>
+      </c>
+      <c r="E49" s="75"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="67" t="s">
+      <c r="D50" s="75">
+        <v>0</v>
+      </c>
+      <c r="E50" s="75"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="75">
+        <v>0</v>
+      </c>
+      <c r="E51" s="75"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="75">
+        <v>0</v>
+      </c>
+      <c r="E52" s="75"/>
+    </row>
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="95"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-    </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-    </row>
-    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-    </row>
-    <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-    </row>
-    <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="73">
-        <v>45568</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="74">
-        <v>45599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="74">
-        <v>45629</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="74">
-        <v>45689</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="73">
-        <v>45716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-    </row>
-    <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="87"/>
-    </row>
-    <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="87"/>
-    </row>
-    <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="87"/>
-    </row>
-    <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="86"/>
-      <c r="E44" s="87"/>
-    </row>
-    <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="90"/>
-    </row>
-    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="67" t="s">
+      <c r="D53" s="75">
+        <v>0</v>
+      </c>
+      <c r="E53" s="75"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="82">
-        <v>0</v>
-      </c>
-      <c r="E49" s="82"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="82">
-        <v>0</v>
-      </c>
-      <c r="E50" s="82"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="82">
-        <v>0</v>
-      </c>
-      <c r="E51" s="82"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="82">
-        <v>0</v>
-      </c>
-      <c r="E52" s="82"/>
-    </row>
-    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="82">
-        <v>0</v>
-      </c>
-      <c r="E53" s="82"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="79" t="s">
+      <c r="D57" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="78"/>
+    </row>
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="87"/>
-    </row>
-    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="79" t="s">
+      <c r="D58" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="80"/>
+    </row>
+    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B59" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="104"/>
-    </row>
-    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="87"/>
+      <c r="E59" s="78"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C40:E40"/>
@@ -2532,16 +2801,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2554,13 +2818,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:AC21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2573,37 +2837,47 @@
     <col min="21" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+    </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="L2" s="24" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="L2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="U2" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="130"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2663,33 +2937,15 @@
       <c r="T3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="3">
-        <v>9</v>
-      </c>
-      <c r="V3" s="3">
-        <v>10</v>
-      </c>
-      <c r="W3" s="3">
-        <v>11</v>
-      </c>
-      <c r="X3" s="3">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>13</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>16</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133"/>
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133"/>
+      <c r="AC3" s="134"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
@@ -2764,71 +3020,45 @@
         <f>S4+6</f>
         <v>45464</v>
       </c>
-      <c r="U4" s="5">
-        <f>S4+7</f>
-        <v>45465</v>
-      </c>
-      <c r="V4" s="5">
-        <f>U4+7</f>
-        <v>45472</v>
-      </c>
-      <c r="W4" s="5">
-        <f t="shared" ref="W4" si="2">V4+7</f>
-        <v>45479</v>
-      </c>
-      <c r="X4" s="5">
-        <f t="shared" ref="X4" si="3">W4+7</f>
-        <v>45486</v>
-      </c>
-      <c r="Y4" s="5">
-        <f t="shared" ref="Y4" si="4">X4+7</f>
-        <v>45493</v>
-      </c>
-      <c r="Z4" s="5">
-        <f t="shared" ref="Z4" si="5">Y4+7</f>
-        <v>45500</v>
-      </c>
-      <c r="AA4" s="5">
-        <f t="shared" ref="AA4" si="6">Z4+7</f>
-        <v>45507</v>
-      </c>
-      <c r="AB4" s="5">
-        <f t="shared" ref="AB4" si="7">AA4+7</f>
-        <v>45514</v>
-      </c>
-      <c r="AC4" s="6">
-        <f>AB4+6</f>
-        <v>45520</v>
-      </c>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="135"/>
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="133"/>
+      <c r="AC5" s="133"/>
     </row>
     <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2850,14 +3080,15 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -2879,14 +3110,15 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -2908,14 +3140,15 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130"/>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -2937,14 +3170,15 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -2966,14 +3200,15 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -2995,14 +3230,15 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="130"/>
+      <c r="AC11" s="130"/>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -3024,340 +3260,386 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="130"/>
+      <c r="AC13" s="130"/>
     </row>
     <row r="14" spans="1:29" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="28" t="s">
+      <c r="O14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="28" t="s">
+      <c r="P14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="28" t="s">
+      <c r="Q14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="R14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="28" t="s">
+      <c r="S14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="29" t="s">
+      <c r="T14" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="U14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB14" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC14" s="29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="30" t="s">
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
+      <c r="AA14" s="133"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="134"/>
+    </row>
+    <row r="15" spans="1:29" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="119"/>
+      <c r="E15" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="112"/>
+      <c r="G15" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="41" t="s">
-        <v>114</v>
-      </c>
+      <c r="H15" s="106"/>
+      <c r="I15" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="121"/>
       <c r="K15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="11" t="s">
+      <c r="L15" s="126"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="14" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="136"/>
+      <c r="X15" s="136"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="137"/>
+    </row>
+    <row r="16" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="122"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="15"/>
-    </row>
-    <row r="17" spans="1:29" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="136"/>
+      <c r="X16" s="136"/>
+      <c r="Y16" s="136"/>
+      <c r="Z16" s="136"/>
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="137"/>
+    </row>
+    <row r="17" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="122"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="11"/>
-    </row>
-    <row r="18" spans="1:29" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="136"/>
+      <c r="V17" s="136"/>
+      <c r="W17" s="136"/>
+      <c r="X17" s="136"/>
+      <c r="Y17" s="136"/>
+      <c r="Z17" s="136"/>
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="136"/>
+      <c r="AC17" s="137"/>
+    </row>
+    <row r="18" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="123"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="11"/>
-    </row>
-    <row r="19" spans="1:29" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="43"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="136"/>
+      <c r="V18" s="136"/>
+      <c r="W18" s="136"/>
+      <c r="X18" s="136"/>
+      <c r="Y18" s="136"/>
+      <c r="Z18" s="136"/>
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="136"/>
+      <c r="AC18" s="137"/>
+    </row>
+    <row r="19" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="122"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="11"/>
-    </row>
-    <row r="20" spans="1:29" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="43"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="136"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="136"/>
+      <c r="X19" s="136"/>
+      <c r="Y19" s="136"/>
+      <c r="Z19" s="136"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="136"/>
+      <c r="AC19" s="137"/>
+    </row>
+    <row r="20" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="122"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="11"/>
-    </row>
-    <row r="21" spans="1:29" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="136"/>
+      <c r="W20" s="136"/>
+      <c r="X20" s="136"/>
+      <c r="Y20" s="136"/>
+      <c r="Z20" s="136"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="136"/>
+      <c r="AC20" s="137"/>
+    </row>
+    <row r="21" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="122"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="11"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="124"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="124"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="136"/>
+      <c r="W21" s="136"/>
+      <c r="X21" s="136"/>
+      <c r="Y21" s="136"/>
+      <c r="Z21" s="136"/>
+      <c r="AA21" s="138"/>
+      <c r="AB21" s="136"/>
+      <c r="AC21" s="137"/>
     </row>
   </sheetData>
+  <mergeCells count="56">
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -3378,1977 +3660,1977 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="54.125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="44" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="44" customWidth="1"/>
-    <col min="8" max="8" width="8" style="44" customWidth="1"/>
-    <col min="9" max="10" width="0" style="44" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8" style="44"/>
+    <col min="1" max="1" width="3.125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="54.125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="38" customWidth="1"/>
+    <col min="8" max="8" width="8" style="38" customWidth="1"/>
+    <col min="9" max="10" width="0" style="38" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8" style="38"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="45">
+        <v>45568</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="51">
-        <v>45568</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="51">
+      <c r="C6" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="45">
         <v>45575</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="53">
+      <c r="E6" s="46"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="53"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="53"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="53"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="53"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="53"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="53"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="53"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="53"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="53"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="53"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="58"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="58"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="58"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="58"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="58"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="58"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="58"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="58"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="58"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="58"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="58"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="58"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="58"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="61"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="61"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="61"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="61"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="61"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="61"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="61"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="61"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="61"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="61"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="61"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="61"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="61"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="61"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="61"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="61"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="61"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="61"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="61"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="61"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="61"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="61"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="61"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="61"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="61"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="61"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="61"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="61"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="55"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="61"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="55"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="61"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="55"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="61"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="55"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="61"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="55"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="61"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="55"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="61"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="55"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="61"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="55"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="61"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="55"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="61"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="55"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="61"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="55"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="61"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="55"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="61"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="55"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="61"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="55"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="61"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="55"/>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="61"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="55"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="61"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="55"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="61"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="55"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="61"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="55"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="61"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="55"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="61"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="55"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="61"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="55"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="61"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="55"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="61"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="53"/>
+      <c r="G81" s="55"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="61"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="55"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="61"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="55"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="61"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="55"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="61"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="55"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="61"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="55"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="59"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="61"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="55"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="59"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="61"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="55"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="61"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="55"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="59"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="61"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="55"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="59"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="61"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="55"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="59"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="61"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="55"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="59"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="61"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="53"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="55"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="61"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="55"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="61"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="55"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="59"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="60"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="61"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="55"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="61"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="55"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="59"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="61"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="55"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="61"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="55"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="59"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="61"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="55"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="60"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="61"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="55"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="59"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="61"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="55"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="59"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="61"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="55"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="59"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="61"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="55"/>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="59"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="61"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="55"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="59"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="61"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="55"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="59"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="60"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="61"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="55"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="59"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="60"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="61"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="55"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="59"/>
-      <c r="C109" s="59"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="61"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="55"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="59"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="60"/>
-      <c r="E110" s="60"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="61"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="55"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="59"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="60"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="61"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="55"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="59"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="61"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="55"/>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="59"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="61"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="55"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="59"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="61"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="55"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="59"/>
-      <c r="C115" s="59"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="61"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="53"/>
+      <c r="G115" s="55"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="59"/>
-      <c r="C116" s="59"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="61"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="53"/>
+      <c r="G116" s="55"/>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="59"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="60"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="61"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="55"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="59"/>
-      <c r="C118" s="59"/>
-      <c r="D118" s="60"/>
-      <c r="E118" s="60"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="61"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="55"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="59"/>
-      <c r="C119" s="59"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="60"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="61"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="53"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="55"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="59"/>
-      <c r="C120" s="59"/>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="61"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="54"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="55"/>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="59"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="61"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="53"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="55"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="59"/>
-      <c r="C122" s="59"/>
-      <c r="D122" s="60"/>
-      <c r="E122" s="60"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="61"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="53"/>
+      <c r="G122" s="55"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="59"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="60"/>
-      <c r="E123" s="60"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="61"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="53"/>
+      <c r="G123" s="55"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="59"/>
-      <c r="C124" s="59"/>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60"/>
-      <c r="F124" s="59"/>
-      <c r="G124" s="61"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="54"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="55"/>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="59"/>
-      <c r="C125" s="59"/>
-      <c r="D125" s="60"/>
-      <c r="E125" s="60"/>
-      <c r="F125" s="59"/>
-      <c r="G125" s="61"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="55"/>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="59"/>
-      <c r="C126" s="59"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="59"/>
-      <c r="G126" s="61"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="53"/>
+      <c r="G126" s="55"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="59"/>
-      <c r="C127" s="59"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="59"/>
-      <c r="G127" s="61"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="53"/>
+      <c r="G127" s="55"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="59"/>
-      <c r="C128" s="59"/>
-      <c r="D128" s="60"/>
-      <c r="E128" s="60"/>
-      <c r="F128" s="59"/>
-      <c r="G128" s="61"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="55"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="59"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="60"/>
-      <c r="E129" s="60"/>
-      <c r="F129" s="59"/>
-      <c r="G129" s="61"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="55"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="59"/>
-      <c r="C130" s="59"/>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60"/>
-      <c r="F130" s="59"/>
-      <c r="G130" s="61"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="54"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="55"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="59"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60"/>
-      <c r="F131" s="59"/>
-      <c r="G131" s="61"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="55"/>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="59"/>
-      <c r="C132" s="59"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="60"/>
-      <c r="F132" s="59"/>
-      <c r="G132" s="61"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="55"/>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="59"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="60"/>
-      <c r="E133" s="60"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="61"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="55"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="59"/>
-      <c r="C134" s="59"/>
-      <c r="D134" s="60"/>
-      <c r="E134" s="60"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="61"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="54"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="55"/>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="59"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="60"/>
-      <c r="E135" s="60"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="61"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="53"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="54"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="55"/>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="59"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="60"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="61"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="55"/>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="59"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="60"/>
-      <c r="F137" s="59"/>
-      <c r="G137" s="61"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="54"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="55"/>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="59"/>
-      <c r="C138" s="59"/>
-      <c r="D138" s="60"/>
-      <c r="E138" s="60"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="61"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="53"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="54"/>
+      <c r="F138" s="53"/>
+      <c r="G138" s="55"/>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="59"/>
-      <c r="C139" s="59"/>
-      <c r="D139" s="60"/>
-      <c r="E139" s="60"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="61"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="53"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="54"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="55"/>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="59"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="60"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="59"/>
-      <c r="G140" s="61"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="54"/>
+      <c r="F140" s="53"/>
+      <c r="G140" s="55"/>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="59"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="60"/>
-      <c r="E141" s="60"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="61"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="53"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="54"/>
+      <c r="F141" s="53"/>
+      <c r="G141" s="55"/>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="59"/>
-      <c r="C142" s="59"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="59"/>
-      <c r="G142" s="61"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="54"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="55"/>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="59"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="60"/>
-      <c r="E143" s="60"/>
-      <c r="F143" s="59"/>
-      <c r="G143" s="61"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="53"/>
+      <c r="G143" s="55"/>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="59"/>
-      <c r="C144" s="59"/>
-      <c r="D144" s="60"/>
-      <c r="E144" s="60"/>
-      <c r="F144" s="59"/>
-      <c r="G144" s="61"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="54"/>
+      <c r="F144" s="53"/>
+      <c r="G144" s="55"/>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="59"/>
-      <c r="C145" s="59"/>
-      <c r="D145" s="60"/>
-      <c r="E145" s="60"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="61"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="55"/>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="59"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="60"/>
-      <c r="F146" s="59"/>
-      <c r="G146" s="61"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="54"/>
+      <c r="F146" s="53"/>
+      <c r="G146" s="55"/>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="59"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="60"/>
-      <c r="E147" s="60"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="61"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="53"/>
+      <c r="G147" s="55"/>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="59"/>
-      <c r="C148" s="59"/>
-      <c r="D148" s="60"/>
-      <c r="E148" s="60"/>
-      <c r="F148" s="59"/>
-      <c r="G148" s="61"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="54"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="55"/>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="59"/>
-      <c r="C149" s="59"/>
-      <c r="D149" s="60"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="59"/>
-      <c r="G149" s="61"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="53"/>
+      <c r="G149" s="55"/>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="59"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="60"/>
-      <c r="E150" s="60"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="61"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="54"/>
+      <c r="F150" s="53"/>
+      <c r="G150" s="55"/>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="59"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="60"/>
-      <c r="E151" s="60"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="61"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="53"/>
+      <c r="G151" s="55"/>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="59"/>
-      <c r="C152" s="59"/>
-      <c r="D152" s="60"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="61"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="54"/>
+      <c r="F152" s="53"/>
+      <c r="G152" s="55"/>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="59"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="61"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="55"/>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="59"/>
-      <c r="C154" s="59"/>
-      <c r="D154" s="60"/>
-      <c r="E154" s="60"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="61"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="54"/>
+      <c r="F154" s="53"/>
+      <c r="G154" s="55"/>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="59"/>
-      <c r="C155" s="59"/>
-      <c r="D155" s="60"/>
-      <c r="E155" s="60"/>
-      <c r="F155" s="59"/>
-      <c r="G155" s="61"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="54"/>
+      <c r="F155" s="53"/>
+      <c r="G155" s="55"/>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="59"/>
-      <c r="C156" s="59"/>
-      <c r="D156" s="60"/>
-      <c r="E156" s="60"/>
-      <c r="F156" s="59"/>
-      <c r="G156" s="61"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="54"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="55"/>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="59"/>
-      <c r="C157" s="59"/>
-      <c r="D157" s="60"/>
-      <c r="E157" s="60"/>
-      <c r="F157" s="59"/>
-      <c r="G157" s="61"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="55"/>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="59"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="60"/>
-      <c r="E158" s="60"/>
-      <c r="F158" s="59"/>
-      <c r="G158" s="61"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="54"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="55"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="59"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="59"/>
-      <c r="G159" s="61"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="54"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="55"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="59"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="60"/>
-      <c r="E160" s="60"/>
-      <c r="F160" s="59"/>
-      <c r="G160" s="61"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="54"/>
+      <c r="F160" s="53"/>
+      <c r="G160" s="55"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="59"/>
-      <c r="C161" s="59"/>
-      <c r="D161" s="60"/>
-      <c r="E161" s="60"/>
-      <c r="F161" s="59"/>
-      <c r="G161" s="61"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="54"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="55"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="59"/>
-      <c r="C162" s="59"/>
-      <c r="D162" s="60"/>
-      <c r="E162" s="60"/>
-      <c r="F162" s="59"/>
-      <c r="G162" s="61"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="53"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="54"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="55"/>
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="59"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="60"/>
-      <c r="E163" s="60"/>
-      <c r="F163" s="59"/>
-      <c r="G163" s="61"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="54"/>
+      <c r="E163" s="54"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="55"/>
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="59"/>
-      <c r="C164" s="59"/>
-      <c r="D164" s="60"/>
-      <c r="E164" s="60"/>
-      <c r="F164" s="59"/>
-      <c r="G164" s="61"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="54"/>
+      <c r="E164" s="54"/>
+      <c r="F164" s="53"/>
+      <c r="G164" s="55"/>
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="59"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="60"/>
-      <c r="E165" s="60"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="61"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="55"/>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="59"/>
-      <c r="C166" s="59"/>
-      <c r="D166" s="60"/>
-      <c r="E166" s="60"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="61"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="54"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="55"/>
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="59"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="60"/>
-      <c r="E167" s="60"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="61"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="54"/>
+      <c r="E167" s="54"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="55"/>
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="59"/>
-      <c r="C168" s="59"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="60"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="61"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="54"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="55"/>
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="59"/>
-      <c r="C169" s="59"/>
-      <c r="D169" s="60"/>
-      <c r="E169" s="60"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="61"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="54"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="55"/>
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="59"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="60"/>
-      <c r="E170" s="60"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="61"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="54"/>
+      <c r="E170" s="54"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="55"/>
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="59"/>
-      <c r="C171" s="59"/>
-      <c r="D171" s="60"/>
-      <c r="E171" s="60"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="61"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="54"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="55"/>
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="59"/>
-      <c r="C172" s="59"/>
-      <c r="D172" s="60"/>
-      <c r="E172" s="60"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="61"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="54"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="55"/>
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="59"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="60"/>
-      <c r="F173" s="59"/>
-      <c r="G173" s="61"/>
+      <c r="B173" s="53"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="54"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="55"/>
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="59"/>
-      <c r="C174" s="59"/>
-      <c r="D174" s="60"/>
-      <c r="E174" s="60"/>
-      <c r="F174" s="59"/>
-      <c r="G174" s="61"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="54"/>
+      <c r="E174" s="54"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="55"/>
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="59"/>
-      <c r="C175" s="59"/>
-      <c r="D175" s="60"/>
-      <c r="E175" s="60"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="61"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="54"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="55"/>
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="59"/>
-      <c r="C176" s="59"/>
-      <c r="D176" s="60"/>
-      <c r="E176" s="60"/>
-      <c r="F176" s="59"/>
-      <c r="G176" s="61"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="53"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="54"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="55"/>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="59"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="60"/>
-      <c r="E177" s="60"/>
-      <c r="F177" s="59"/>
-      <c r="G177" s="61"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="54"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="55"/>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="59"/>
-      <c r="C178" s="59"/>
-      <c r="D178" s="60"/>
-      <c r="E178" s="60"/>
-      <c r="F178" s="59"/>
-      <c r="G178" s="61"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="54"/>
+      <c r="E178" s="54"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="55"/>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="59"/>
-      <c r="C179" s="59"/>
-      <c r="D179" s="60"/>
-      <c r="E179" s="60"/>
-      <c r="F179" s="59"/>
-      <c r="G179" s="61"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="54"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="55"/>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="59"/>
-      <c r="C180" s="59"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="59"/>
-      <c r="G180" s="61"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="54"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="55"/>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="59"/>
-      <c r="C181" s="59"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="61"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="54"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="55"/>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="59"/>
-      <c r="C182" s="59"/>
-      <c r="D182" s="60"/>
-      <c r="E182" s="60"/>
-      <c r="F182" s="59"/>
-      <c r="G182" s="61"/>
+      <c r="B182" s="53"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="54"/>
+      <c r="E182" s="54"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="55"/>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="59"/>
-      <c r="C183" s="59"/>
-      <c r="D183" s="60"/>
-      <c r="E183" s="60"/>
-      <c r="F183" s="59"/>
-      <c r="G183" s="61"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="55"/>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="59"/>
-      <c r="C184" s="59"/>
-      <c r="D184" s="60"/>
-      <c r="E184" s="60"/>
-      <c r="F184" s="59"/>
-      <c r="G184" s="61"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="54"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="55"/>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="59"/>
-      <c r="C185" s="59"/>
-      <c r="D185" s="60"/>
-      <c r="E185" s="60"/>
-      <c r="F185" s="59"/>
-      <c r="G185" s="61"/>
+      <c r="B185" s="53"/>
+      <c r="C185" s="53"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="54"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="55"/>
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="59"/>
-      <c r="C186" s="59"/>
-      <c r="D186" s="60"/>
-      <c r="E186" s="60"/>
-      <c r="F186" s="59"/>
-      <c r="G186" s="61"/>
+      <c r="B186" s="53"/>
+      <c r="C186" s="53"/>
+      <c r="D186" s="54"/>
+      <c r="E186" s="54"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="55"/>
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="59"/>
-      <c r="C187" s="59"/>
-      <c r="D187" s="60"/>
-      <c r="E187" s="60"/>
-      <c r="F187" s="59"/>
-      <c r="G187" s="61"/>
+      <c r="B187" s="53"/>
+      <c r="C187" s="53"/>
+      <c r="D187" s="54"/>
+      <c r="E187" s="54"/>
+      <c r="F187" s="53"/>
+      <c r="G187" s="55"/>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="59"/>
-      <c r="C188" s="59"/>
-      <c r="D188" s="60"/>
-      <c r="E188" s="60"/>
-      <c r="F188" s="59"/>
-      <c r="G188" s="61"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="53"/>
+      <c r="D188" s="54"/>
+      <c r="E188" s="54"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="55"/>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="59"/>
-      <c r="C189" s="59"/>
-      <c r="D189" s="60"/>
-      <c r="E189" s="60"/>
-      <c r="F189" s="59"/>
-      <c r="G189" s="61"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="54"/>
+      <c r="E189" s="54"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="55"/>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="59"/>
-      <c r="C190" s="59"/>
-      <c r="D190" s="60"/>
-      <c r="E190" s="60"/>
-      <c r="F190" s="59"/>
-      <c r="G190" s="61"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="54"/>
+      <c r="E190" s="54"/>
+      <c r="F190" s="53"/>
+      <c r="G190" s="55"/>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="59"/>
-      <c r="C191" s="59"/>
-      <c r="D191" s="60"/>
-      <c r="E191" s="60"/>
-      <c r="F191" s="59"/>
-      <c r="G191" s="61"/>
+      <c r="B191" s="53"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="54"/>
+      <c r="E191" s="54"/>
+      <c r="F191" s="53"/>
+      <c r="G191" s="55"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="59"/>
-      <c r="C192" s="59"/>
-      <c r="D192" s="60"/>
-      <c r="E192" s="60"/>
-      <c r="F192" s="59"/>
-      <c r="G192" s="61"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="53"/>
+      <c r="D192" s="54"/>
+      <c r="E192" s="54"/>
+      <c r="F192" s="53"/>
+      <c r="G192" s="55"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="59"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="60"/>
-      <c r="E193" s="60"/>
-      <c r="F193" s="59"/>
-      <c r="G193" s="61"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="53"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="54"/>
+      <c r="F193" s="53"/>
+      <c r="G193" s="55"/>
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="59"/>
-      <c r="C194" s="59"/>
-      <c r="D194" s="60"/>
-      <c r="E194" s="60"/>
-      <c r="F194" s="59"/>
-      <c r="G194" s="61"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="53"/>
+      <c r="D194" s="54"/>
+      <c r="E194" s="54"/>
+      <c r="F194" s="53"/>
+      <c r="G194" s="55"/>
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="59"/>
-      <c r="C195" s="59"/>
-      <c r="D195" s="60"/>
-      <c r="E195" s="60"/>
-      <c r="F195" s="59"/>
-      <c r="G195" s="61"/>
+      <c r="B195" s="53"/>
+      <c r="C195" s="53"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="54"/>
+      <c r="F195" s="53"/>
+      <c r="G195" s="55"/>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="59"/>
-      <c r="C196" s="59"/>
-      <c r="D196" s="60"/>
-      <c r="E196" s="60"/>
-      <c r="F196" s="59"/>
-      <c r="G196" s="61"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="54"/>
+      <c r="F196" s="53"/>
+      <c r="G196" s="55"/>
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="59"/>
-      <c r="C197" s="59"/>
-      <c r="D197" s="60"/>
-      <c r="E197" s="60"/>
-      <c r="F197" s="59"/>
-      <c r="G197" s="61"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="55"/>
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="59"/>
-      <c r="C198" s="59"/>
-      <c r="D198" s="60"/>
-      <c r="E198" s="60"/>
-      <c r="F198" s="59"/>
-      <c r="G198" s="61"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="54"/>
+      <c r="E198" s="54"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="55"/>
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="59"/>
-      <c r="C199" s="59"/>
-      <c r="D199" s="60"/>
-      <c r="E199" s="60"/>
-      <c r="F199" s="59"/>
-      <c r="G199" s="61"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="53"/>
+      <c r="D199" s="54"/>
+      <c r="E199" s="54"/>
+      <c r="F199" s="53"/>
+      <c r="G199" s="55"/>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="59"/>
-      <c r="C200" s="59"/>
-      <c r="D200" s="60"/>
-      <c r="E200" s="60"/>
-      <c r="F200" s="59"/>
-      <c r="G200" s="61"/>
+      <c r="B200" s="53"/>
+      <c r="C200" s="53"/>
+      <c r="D200" s="54"/>
+      <c r="E200" s="54"/>
+      <c r="F200" s="53"/>
+      <c r="G200" s="55"/>
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="59"/>
-      <c r="C201" s="59"/>
-      <c r="D201" s="60"/>
-      <c r="E201" s="60"/>
-      <c r="F201" s="59"/>
-      <c r="G201" s="61"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="53"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="53"/>
+      <c r="G201" s="55"/>
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="59"/>
-      <c r="C202" s="59"/>
-      <c r="D202" s="60"/>
-      <c r="E202" s="60"/>
-      <c r="F202" s="59"/>
-      <c r="G202" s="61"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="53"/>
+      <c r="D202" s="54"/>
+      <c r="E202" s="54"/>
+      <c r="F202" s="53"/>
+      <c r="G202" s="55"/>
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="59"/>
-      <c r="C203" s="59"/>
-      <c r="D203" s="60"/>
-      <c r="E203" s="60"/>
-      <c r="F203" s="59"/>
-      <c r="G203" s="61"/>
+      <c r="B203" s="53"/>
+      <c r="C203" s="53"/>
+      <c r="D203" s="54"/>
+      <c r="E203" s="54"/>
+      <c r="F203" s="53"/>
+      <c r="G203" s="55"/>
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="59"/>
-      <c r="C204" s="59"/>
-      <c r="D204" s="60"/>
-      <c r="E204" s="60"/>
-      <c r="F204" s="59"/>
-      <c r="G204" s="61"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="53"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="54"/>
+      <c r="F204" s="53"/>
+      <c r="G204" s="55"/>
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="59"/>
-      <c r="C205" s="59"/>
-      <c r="D205" s="60"/>
-      <c r="E205" s="60"/>
-      <c r="F205" s="59"/>
-      <c r="G205" s="61"/>
+      <c r="B205" s="53"/>
+      <c r="C205" s="53"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="54"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="55"/>
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="59"/>
-      <c r="C206" s="59"/>
-      <c r="D206" s="60"/>
-      <c r="E206" s="60"/>
-      <c r="F206" s="59"/>
-      <c r="G206" s="61"/>
+      <c r="B206" s="53"/>
+      <c r="C206" s="53"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="54"/>
+      <c r="F206" s="53"/>
+      <c r="G206" s="55"/>
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="59"/>
-      <c r="C207" s="59"/>
-      <c r="D207" s="60"/>
-      <c r="E207" s="60"/>
-      <c r="F207" s="59"/>
-      <c r="G207" s="61"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="53"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="54"/>
+      <c r="F207" s="53"/>
+      <c r="G207" s="55"/>
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="59"/>
-      <c r="C208" s="59"/>
-      <c r="D208" s="60"/>
-      <c r="E208" s="60"/>
-      <c r="F208" s="59"/>
-      <c r="G208" s="61"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="53"/>
+      <c r="D208" s="54"/>
+      <c r="E208" s="54"/>
+      <c r="F208" s="53"/>
+      <c r="G208" s="55"/>
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="59"/>
-      <c r="C209" s="59"/>
-      <c r="D209" s="60"/>
-      <c r="E209" s="60"/>
-      <c r="F209" s="59"/>
-      <c r="G209" s="61"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="53"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="53"/>
+      <c r="G209" s="55"/>
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="59"/>
-      <c r="C210" s="59"/>
-      <c r="D210" s="60"/>
-      <c r="E210" s="60"/>
-      <c r="F210" s="59"/>
-      <c r="G210" s="61"/>
+      <c r="B210" s="53"/>
+      <c r="C210" s="53"/>
+      <c r="D210" s="54"/>
+      <c r="E210" s="54"/>
+      <c r="F210" s="53"/>
+      <c r="G210" s="55"/>
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="59"/>
-      <c r="C211" s="59"/>
-      <c r="D211" s="60"/>
-      <c r="E211" s="60"/>
-      <c r="F211" s="59"/>
-      <c r="G211" s="61"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="53"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="53"/>
+      <c r="G211" s="55"/>
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="59"/>
-      <c r="C212" s="59"/>
-      <c r="D212" s="60"/>
-      <c r="E212" s="60"/>
-      <c r="F212" s="59"/>
-      <c r="G212" s="61"/>
+      <c r="B212" s="53"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="54"/>
+      <c r="E212" s="54"/>
+      <c r="F212" s="53"/>
+      <c r="G212" s="55"/>
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="59"/>
-      <c r="C213" s="59"/>
-      <c r="D213" s="60"/>
-      <c r="E213" s="60"/>
-      <c r="F213" s="59"/>
-      <c r="G213" s="61"/>
+      <c r="B213" s="53"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="54"/>
+      <c r="E213" s="54"/>
+      <c r="F213" s="53"/>
+      <c r="G213" s="55"/>
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="59"/>
-      <c r="C214" s="59"/>
-      <c r="D214" s="60"/>
-      <c r="E214" s="60"/>
-      <c r="F214" s="59"/>
-      <c r="G214" s="61"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="53"/>
+      <c r="D214" s="54"/>
+      <c r="E214" s="54"/>
+      <c r="F214" s="53"/>
+      <c r="G214" s="55"/>
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="59"/>
-      <c r="C215" s="59"/>
-      <c r="D215" s="60"/>
-      <c r="E215" s="60"/>
-      <c r="F215" s="59"/>
-      <c r="G215" s="61"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="53"/>
+      <c r="D215" s="54"/>
+      <c r="E215" s="54"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="55"/>
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="59"/>
-      <c r="C216" s="59"/>
-      <c r="D216" s="60"/>
-      <c r="E216" s="60"/>
-      <c r="F216" s="59"/>
-      <c r="G216" s="61"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="53"/>
+      <c r="D216" s="54"/>
+      <c r="E216" s="54"/>
+      <c r="F216" s="53"/>
+      <c r="G216" s="55"/>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="59"/>
-      <c r="C217" s="59"/>
-      <c r="D217" s="60"/>
-      <c r="E217" s="60"/>
-      <c r="F217" s="59"/>
-      <c r="G217" s="61"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="53"/>
+      <c r="D217" s="54"/>
+      <c r="E217" s="54"/>
+      <c r="F217" s="53"/>
+      <c r="G217" s="55"/>
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="59"/>
-      <c r="C218" s="59"/>
-      <c r="D218" s="60"/>
-      <c r="E218" s="60"/>
-      <c r="F218" s="59"/>
-      <c r="G218" s="61"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="54"/>
+      <c r="E218" s="54"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="55"/>
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="59"/>
-      <c r="C219" s="59"/>
-      <c r="D219" s="60"/>
-      <c r="E219" s="60"/>
-      <c r="F219" s="59"/>
-      <c r="G219" s="61"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="53"/>
+      <c r="D219" s="54"/>
+      <c r="E219" s="54"/>
+      <c r="F219" s="53"/>
+      <c r="G219" s="55"/>
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="59"/>
-      <c r="C220" s="59"/>
-      <c r="D220" s="60"/>
-      <c r="E220" s="60"/>
-      <c r="F220" s="59"/>
-      <c r="G220" s="61"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="54"/>
+      <c r="E220" s="54"/>
+      <c r="F220" s="53"/>
+      <c r="G220" s="55"/>
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="59"/>
-      <c r="C221" s="59"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="59"/>
-      <c r="G221" s="61"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="53"/>
+      <c r="D221" s="54"/>
+      <c r="E221" s="54"/>
+      <c r="F221" s="53"/>
+      <c r="G221" s="55"/>
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="59"/>
-      <c r="C222" s="59"/>
-      <c r="D222" s="60"/>
-      <c r="E222" s="60"/>
-      <c r="F222" s="59"/>
-      <c r="G222" s="61"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="54"/>
+      <c r="E222" s="54"/>
+      <c r="F222" s="53"/>
+      <c r="G222" s="55"/>
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="59"/>
-      <c r="C223" s="59"/>
-      <c r="D223" s="60"/>
-      <c r="E223" s="60"/>
-      <c r="F223" s="59"/>
-      <c r="G223" s="61"/>
+      <c r="B223" s="53"/>
+      <c r="C223" s="53"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="54"/>
+      <c r="F223" s="53"/>
+      <c r="G223" s="55"/>
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="59"/>
-      <c r="C224" s="59"/>
-      <c r="D224" s="60"/>
-      <c r="E224" s="60"/>
-      <c r="F224" s="59"/>
-      <c r="G224" s="61"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="54"/>
+      <c r="E224" s="54"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="55"/>
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="59"/>
-      <c r="C225" s="59"/>
-      <c r="D225" s="60"/>
-      <c r="E225" s="60"/>
-      <c r="F225" s="59"/>
-      <c r="G225" s="61"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="53"/>
+      <c r="D225" s="54"/>
+      <c r="E225" s="54"/>
+      <c r="F225" s="53"/>
+      <c r="G225" s="55"/>
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="59"/>
-      <c r="C226" s="59"/>
-      <c r="D226" s="60"/>
-      <c r="E226" s="60"/>
-      <c r="F226" s="59"/>
-      <c r="G226" s="61"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="53"/>
+      <c r="D226" s="54"/>
+      <c r="E226" s="54"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="55"/>
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="59"/>
-      <c r="C227" s="59"/>
-      <c r="D227" s="60"/>
-      <c r="E227" s="60"/>
-      <c r="F227" s="59"/>
-      <c r="G227" s="61"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="53"/>
+      <c r="D227" s="54"/>
+      <c r="E227" s="54"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="55"/>
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="59"/>
-      <c r="C228" s="59"/>
-      <c r="D228" s="60"/>
-      <c r="E228" s="60"/>
-      <c r="F228" s="59"/>
-      <c r="G228" s="61"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="53"/>
+      <c r="D228" s="54"/>
+      <c r="E228" s="54"/>
+      <c r="F228" s="53"/>
+      <c r="G228" s="55"/>
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="59"/>
-      <c r="C229" s="59"/>
-      <c r="D229" s="60"/>
-      <c r="E229" s="60"/>
-      <c r="F229" s="59"/>
-      <c r="G229" s="61"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="53"/>
+      <c r="D229" s="54"/>
+      <c r="E229" s="54"/>
+      <c r="F229" s="53"/>
+      <c r="G229" s="55"/>
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="59"/>
-      <c r="C230" s="59"/>
-      <c r="D230" s="60"/>
-      <c r="E230" s="60"/>
-      <c r="F230" s="59"/>
-      <c r="G230" s="61"/>
+      <c r="B230" s="53"/>
+      <c r="C230" s="53"/>
+      <c r="D230" s="54"/>
+      <c r="E230" s="54"/>
+      <c r="F230" s="53"/>
+      <c r="G230" s="55"/>
     </row>
     <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="59"/>
-      <c r="C231" s="59"/>
-      <c r="D231" s="60"/>
-      <c r="E231" s="60"/>
-      <c r="F231" s="59"/>
-      <c r="G231" s="61"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="53"/>
+      <c r="D231" s="54"/>
+      <c r="E231" s="54"/>
+      <c r="F231" s="53"/>
+      <c r="G231" s="55"/>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="59"/>
-      <c r="C232" s="59"/>
-      <c r="D232" s="60"/>
-      <c r="E232" s="60"/>
-      <c r="F232" s="59"/>
-      <c r="G232" s="61"/>
+      <c r="B232" s="53"/>
+      <c r="C232" s="53"/>
+      <c r="D232" s="54"/>
+      <c r="E232" s="54"/>
+      <c r="F232" s="53"/>
+      <c r="G232" s="55"/>
     </row>
     <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="59"/>
-      <c r="C233" s="59"/>
-      <c r="D233" s="60"/>
-      <c r="E233" s="60"/>
-      <c r="F233" s="59"/>
-      <c r="G233" s="61"/>
+      <c r="B233" s="53"/>
+      <c r="C233" s="53"/>
+      <c r="D233" s="54"/>
+      <c r="E233" s="54"/>
+      <c r="F233" s="53"/>
+      <c r="G233" s="55"/>
     </row>
     <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="59"/>
-      <c r="C234" s="59"/>
-      <c r="D234" s="60"/>
-      <c r="E234" s="60"/>
-      <c r="F234" s="59"/>
-      <c r="G234" s="61"/>
+      <c r="B234" s="53"/>
+      <c r="C234" s="53"/>
+      <c r="D234" s="54"/>
+      <c r="E234" s="54"/>
+      <c r="F234" s="53"/>
+      <c r="G234" s="55"/>
     </row>
     <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="59"/>
-      <c r="C235" s="59"/>
-      <c r="D235" s="60"/>
-      <c r="E235" s="60"/>
-      <c r="F235" s="59"/>
-      <c r="G235" s="61"/>
+      <c r="B235" s="53"/>
+      <c r="C235" s="53"/>
+      <c r="D235" s="54"/>
+      <c r="E235" s="54"/>
+      <c r="F235" s="53"/>
+      <c r="G235" s="55"/>
     </row>
     <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="59"/>
-      <c r="C236" s="59"/>
-      <c r="D236" s="60"/>
-      <c r="E236" s="60"/>
-      <c r="F236" s="59"/>
-      <c r="G236" s="61"/>
+      <c r="B236" s="53"/>
+      <c r="C236" s="53"/>
+      <c r="D236" s="54"/>
+      <c r="E236" s="54"/>
+      <c r="F236" s="53"/>
+      <c r="G236" s="55"/>
     </row>
     <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="59"/>
-      <c r="C237" s="59"/>
-      <c r="D237" s="60"/>
-      <c r="E237" s="60"/>
-      <c r="F237" s="59"/>
-      <c r="G237" s="61"/>
+      <c r="B237" s="53"/>
+      <c r="C237" s="53"/>
+      <c r="D237" s="54"/>
+      <c r="E237" s="54"/>
+      <c r="F237" s="53"/>
+      <c r="G237" s="55"/>
     </row>
     <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="59"/>
-      <c r="C238" s="59"/>
-      <c r="D238" s="60"/>
-      <c r="E238" s="60"/>
-      <c r="F238" s="59"/>
-      <c r="G238" s="61"/>
+      <c r="B238" s="53"/>
+      <c r="C238" s="53"/>
+      <c r="D238" s="54"/>
+      <c r="E238" s="54"/>
+      <c r="F238" s="53"/>
+      <c r="G238" s="55"/>
     </row>
     <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="59"/>
-      <c r="C239" s="59"/>
-      <c r="D239" s="60"/>
-      <c r="E239" s="60"/>
-      <c r="F239" s="59"/>
-      <c r="G239" s="61"/>
+      <c r="B239" s="53"/>
+      <c r="C239" s="53"/>
+      <c r="D239" s="54"/>
+      <c r="E239" s="54"/>
+      <c r="F239" s="53"/>
+      <c r="G239" s="55"/>
     </row>
     <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="59"/>
-      <c r="C240" s="59"/>
-      <c r="D240" s="60"/>
-      <c r="E240" s="60"/>
-      <c r="F240" s="59"/>
-      <c r="G240" s="61"/>
+      <c r="B240" s="53"/>
+      <c r="C240" s="53"/>
+      <c r="D240" s="54"/>
+      <c r="E240" s="54"/>
+      <c r="F240" s="53"/>
+      <c r="G240" s="55"/>
     </row>
     <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="59"/>
-      <c r="C241" s="59"/>
-      <c r="D241" s="60"/>
-      <c r="E241" s="60"/>
-      <c r="F241" s="59"/>
-      <c r="G241" s="61"/>
+      <c r="B241" s="53"/>
+      <c r="C241" s="53"/>
+      <c r="D241" s="54"/>
+      <c r="E241" s="54"/>
+      <c r="F241" s="53"/>
+      <c r="G241" s="55"/>
     </row>
     <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="59"/>
-      <c r="C242" s="59"/>
-      <c r="D242" s="60"/>
-      <c r="E242" s="60"/>
-      <c r="F242" s="59"/>
-      <c r="G242" s="61"/>
+      <c r="B242" s="53"/>
+      <c r="C242" s="53"/>
+      <c r="D242" s="54"/>
+      <c r="E242" s="54"/>
+      <c r="F242" s="53"/>
+      <c r="G242" s="55"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G206" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -5485,23 +5767,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="17"/>
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="56" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5509,23 +5791,23 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -5607,62 +5889,62 @@
       <c r="E16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="41"/>
+    <row r="17" spans="1:6" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="41"/>
+    <row r="18" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="41"/>
+    <row r="20" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="41"/>
+    <row r="21" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="41"/>
+    <row r="22" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" s="14" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="41"/>
+    <row r="23" spans="1:6" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="11"/>
@@ -5696,7 +5978,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5716,23 +5998,23 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5740,43 +6022,43 @@
       <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
+      <c r="B18" s="36"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="zv3IcMyQ+b9d+cRrqmz5jNS2YpSgRTm3+c2/N7tYsJTncnBZ7OCH8yxv83rK0MWG+0YA6peEieWXzGf4hv/g+w==" saltValue="k830diYFyTK3yxwjP65REw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
+++ b/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KucharJan\Documents\GitHub\ProjektPXPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MachacekDav\Documents\ProjektPXPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF1F789-7440-444E-B589-EA63DBD71EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D517A-A77E-41F3-85F5-1E0BAF4A1BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1204,7 +1204,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1404,72 +1404,166 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="13" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1490,108 +1584,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="13" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2305,13 +2302,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
       <c r="H1" s="69"/>
@@ -2322,28 +2319,28 @@
       <c r="A3" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="93"/>
+      <c r="C3" s="103"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="103"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="93"/>
+      <c r="C5" s="103"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
@@ -2392,53 +2389,53 @@
       <c r="A13" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="64"/>
@@ -2488,45 +2485,45 @@
       <c r="B26" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="94"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="94"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="94"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
@@ -2586,61 +2583,61 @@
       <c r="B40" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
     </row>
     <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="78"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="96"/>
-      <c r="E42" s="78"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="89"/>
     </row>
     <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="96"/>
-      <c r="E43" s="78"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="89"/>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="96"/>
-      <c r="E44" s="78"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="89"/>
     </row>
     <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="97" t="s">
+      <c r="C45" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
@@ -2652,10 +2649,10 @@
       <c r="C48" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="82"/>
+      <c r="E48" s="92"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
@@ -2667,10 +2664,10 @@
       <c r="C49" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="75">
+      <c r="D49" s="84">
         <v>0</v>
       </c>
-      <c r="E49" s="75"/>
+      <c r="E49" s="84"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="70" t="s">
@@ -2679,10 +2676,10 @@
       <c r="C50" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="75">
+      <c r="D50" s="84">
         <v>0</v>
       </c>
-      <c r="E50" s="75"/>
+      <c r="E50" s="84"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="61" t="s">
@@ -2691,10 +2688,10 @@
       <c r="C51" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="75">
+      <c r="D51" s="84">
         <v>0</v>
       </c>
-      <c r="E51" s="75"/>
+      <c r="E51" s="84"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="61" t="s">
@@ -2703,10 +2700,10 @@
       <c r="C52" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="84">
         <v>0</v>
       </c>
-      <c r="E52" s="75"/>
+      <c r="E52" s="84"/>
     </row>
     <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="61" t="s">
@@ -2715,16 +2712,16 @@
       <c r="C53" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="75">
+      <c r="D53" s="84">
         <v>0</v>
       </c>
-      <c r="E53" s="75"/>
+      <c r="E53" s="84"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="74"/>
       <c r="C54" s="74"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
@@ -2747,10 +2744,10 @@
       <c r="C57" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="78"/>
+      <c r="E57" s="89"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="72" t="s">
@@ -2759,10 +2756,10 @@
       <c r="C58" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="79" t="s">
+      <c r="D58" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="80"/>
+      <c r="E58" s="106"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="72" t="s">
@@ -2771,16 +2768,31 @@
       <c r="C59" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="77" t="s">
+      <c r="D59" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="78"/>
+      <c r="E59" s="89"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B13:E16"/>
+    <mergeCell ref="B17:E19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -2791,21 +2803,6 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B13:E16"/>
-    <mergeCell ref="B17:E19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2838,15 +2835,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C2" s="20" t="s">
@@ -2869,15 +2866,15 @@
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="130"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="75"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2937,98 +2934,90 @@
       <c r="T3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="133"/>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="134"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="79"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="5">
-        <v>45353</v>
+        <v>45559</v>
       </c>
       <c r="D4" s="5">
-        <f>C4+7</f>
-        <v>45360</v>
+        <v>45566</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:J4" si="0">D4+7</f>
-        <v>45367</v>
+        <v>45573</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>45374</v>
+        <v>45580</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>45381</v>
+        <v>45587</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>45388</v>
+        <v>45594</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>45395</v>
+        <v>45601</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="0"/>
-        <v>45402</v>
+        <v>45608</v>
       </c>
       <c r="K4" s="6">
-        <f>J4+6</f>
-        <v>45408</v>
+        <v>45615</v>
       </c>
       <c r="L4" s="5">
-        <f>J4+7</f>
-        <v>45409</v>
+        <f>K4+7</f>
+        <v>45622</v>
       </c>
       <c r="M4" s="5">
         <f>L4+7</f>
-        <v>45416</v>
+        <v>45629</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" ref="N4:S4" si="1">M4+7</f>
-        <v>45423</v>
+        <f t="shared" ref="N4:S4" si="0">M4+7</f>
+        <v>45636</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="1"/>
-        <v>45430</v>
+        <f t="shared" si="0"/>
+        <v>45643</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="1"/>
-        <v>45437</v>
+        <f t="shared" si="0"/>
+        <v>45650</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="1"/>
-        <v>45444</v>
+        <f t="shared" si="0"/>
+        <v>45657</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="1"/>
-        <v>45451</v>
+        <f t="shared" si="0"/>
+        <v>45664</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="1"/>
-        <v>45458</v>
+        <f t="shared" si="0"/>
+        <v>45671</v>
       </c>
       <c r="T4" s="6">
         <f>S4+6</f>
-        <v>45464</v>
-      </c>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="135"/>
+        <v>45677</v>
+      </c>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="80"/>
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3050,15 +3039,15 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="133"/>
-      <c r="AB5" s="133"/>
-      <c r="AC5" s="133"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
     </row>
     <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -3080,15 +3069,15 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="75"/>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -3110,15 +3099,15 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="130"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -3140,15 +3129,15 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="130"/>
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="130"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -3170,15 +3159,15 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -3200,15 +3189,15 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -3230,15 +3219,15 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="130"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -3260,27 +3249,27 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="U13" s="130"/>
-      <c r="V13" s="130"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="130"/>
-      <c r="Y13" s="130"/>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="130"/>
-      <c r="AC13" s="130"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
     </row>
     <row r="14" spans="1:29" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
@@ -3337,259 +3326,287 @@
       <c r="S14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="T14" s="139" t="s">
+      <c r="T14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="133"/>
-      <c r="Z14" s="133"/>
-      <c r="AA14" s="133"/>
-      <c r="AB14" s="133"/>
-      <c r="AC14" s="134"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="79"/>
     </row>
     <row r="15" spans="1:29" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="111" t="s">
+      <c r="D15" s="127"/>
+      <c r="E15" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="105" t="s">
+      <c r="F15" s="138"/>
+      <c r="G15" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="105" t="s">
+      <c r="H15" s="120"/>
+      <c r="I15" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="121"/>
+      <c r="J15" s="116"/>
       <c r="K15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="126"/>
-      <c r="S15" s="127"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="108"/>
       <c r="T15" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="U15" s="136"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="136"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="137"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="82"/>
     </row>
     <row r="16" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="122"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="129"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="110"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="136"/>
-      <c r="V16" s="136"/>
-      <c r="W16" s="136"/>
-      <c r="X16" s="136"/>
-      <c r="Y16" s="136"/>
-      <c r="Z16" s="136"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="137"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="82"/>
     </row>
     <row r="17" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="122"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="129"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="110"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="136"/>
-      <c r="V17" s="136"/>
-      <c r="W17" s="136"/>
-      <c r="X17" s="136"/>
-      <c r="Y17" s="136"/>
-      <c r="Z17" s="136"/>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="136"/>
-      <c r="AC17" s="137"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="82"/>
     </row>
     <row r="18" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="123"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="129"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="110"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="136"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="136"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="138"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="137"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="82"/>
     </row>
     <row r="19" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="122"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="129"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="110"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="136"/>
-      <c r="AA19" s="138"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="137"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="82"/>
     </row>
     <row r="20" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="122"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="114"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="129"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="110"/>
       <c r="T20" s="14"/>
-      <c r="U20" s="136"/>
-      <c r="V20" s="136"/>
-      <c r="W20" s="136"/>
-      <c r="X20" s="136"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="136"/>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="136"/>
-      <c r="AC20" s="137"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="82"/>
     </row>
     <row r="21" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="122"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="114"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="129"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="110"/>
       <c r="T21" s="14"/>
-      <c r="U21" s="136"/>
-      <c r="V21" s="136"/>
-      <c r="W21" s="136"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="136"/>
-      <c r="Z21" s="136"/>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="136"/>
-      <c r="AC21" s="137"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N20:O20"/>
@@ -3604,41 +3621,13 @@
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R16:S16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3673,21 +3662,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="39"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
@@ -5767,13 +5756,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -5998,13 +5987,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="35"/>
@@ -6036,18 +6025,18 @@
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="103"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="34"/>
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="104"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>

--- a/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
+++ b/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MachacekDav\Documents\ProjektPXPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SkorkovskyFil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D517A-A77E-41F3-85F5-1E0BAF4A1BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8723977-7BC5-4E6D-9492-6E32EBE9D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="126">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -405,6 +405,24 @@
   </si>
   <si>
     <t>Revize funkčnosti webu a návrhy na úpravy  a testování a příprava na spuštění</t>
+  </si>
+  <si>
+    <t>výběr a nastavení pluginů</t>
+  </si>
+  <si>
+    <t>Honza kuchař</t>
+  </si>
+  <si>
+    <t>asistent: Filip</t>
+  </si>
+  <si>
+    <t>Grafický návrh</t>
+  </si>
+  <si>
+    <t>50% Tomáš</t>
+  </si>
+  <si>
+    <t>Registrace na wordpress, vytvoření githubu a násladné pozvání všech členů.</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1222,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1231,24 +1249,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1284,9 +1293,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1296,9 +1302,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1541,6 +1544,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1584,11 +1593,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2284,494 +2314,494 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B31"/>
+    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="59" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="59" customWidth="1"/>
-    <col min="6" max="7" width="10.875" style="59" customWidth="1"/>
-    <col min="8" max="9" width="0" style="59" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" style="57" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="57" hidden="1"/>
+    <col min="1" max="1" width="22" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="54" customWidth="1"/>
+    <col min="6" max="7" width="10.875" style="54" customWidth="1"/>
+    <col min="8" max="9" width="0" style="54" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="52" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="52" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="103"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="103"/>
+      <c r="C4" s="98"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="103"/>
+      <c r="C5" s="98"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="97"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="57" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
     </row>
     <row r="24" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="57" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="62">
         <v>45568</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="63">
         <v>45599</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="63">
         <v>45629</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="63">
         <v>45689</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="62">
         <v>45716</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
     </row>
     <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="89"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="84"/>
     </row>
     <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="89"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="88"/>
-      <c r="E44" s="89"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="84"/>
     </row>
     <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="90" t="s">
+      <c r="C45" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="92" t="s">
+      <c r="D48" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="92"/>
+      <c r="E48" s="87"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="58" t="s">
+      <c r="A49" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="84">
+      <c r="D49" s="79">
         <v>0</v>
       </c>
-      <c r="E49" s="84"/>
+      <c r="E49" s="79"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="84">
+      <c r="D50" s="79">
         <v>0</v>
       </c>
-      <c r="E50" s="84"/>
+      <c r="E50" s="79"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="84">
+      <c r="D51" s="79">
         <v>0</v>
       </c>
-      <c r="E51" s="84"/>
+      <c r="E51" s="79"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="84">
+      <c r="D52" s="79">
         <v>0</v>
       </c>
-      <c r="E52" s="84"/>
+      <c r="E52" s="79"/>
     </row>
     <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="84">
+      <c r="D53" s="79">
         <v>0</v>
       </c>
-      <c r="E53" s="84"/>
+      <c r="E53" s="79"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="74"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="62" t="s">
+      <c r="D56" s="57" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="73" t="s">
+      <c r="C57" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="87" t="s">
+      <c r="D57" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="89"/>
+      <c r="E57" s="84"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="73" t="s">
+      <c r="C58" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="105" t="s">
+      <c r="D58" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="106"/>
+      <c r="E58" s="101"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="73" t="s">
+      <c r="C59" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="87" t="s">
+      <c r="D59" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="89"/>
+      <c r="E59" s="84"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
@@ -2817,11 +2847,11 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:F15"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2835,46 +2865,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="L2" s="20" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="L2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="75"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="70"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2934,15 +2964,15 @@
       <c r="T3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="79"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="74"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
@@ -3009,45 +3039,45 @@
         <f>S4+6</f>
         <v>45677</v>
       </c>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="80"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="75"/>
     </row>
     <row r="5" spans="1:29" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
     </row>
     <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -3069,15 +3099,15 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="75"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
     </row>
     <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -3099,15 +3129,15 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
     </row>
     <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -3129,15 +3159,15 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
     </row>
     <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -3159,15 +3189,15 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
     </row>
     <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -3189,15 +3219,15 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
     </row>
     <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -3219,15 +3249,15 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
     </row>
     <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -3249,326 +3279,326 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
     </row>
     <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
     </row>
     <row r="14" spans="1:29" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="R14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="21" t="s">
         <v>35</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="79"/>
-    </row>
-    <row r="15" spans="1:29" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="26" t="s">
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="74"/>
+    </row>
+    <row r="15" spans="1:29" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="137" t="s">
+      <c r="D15" s="124"/>
+      <c r="E15" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="115" t="s">
+      <c r="F15" s="118"/>
+      <c r="G15" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="120"/>
-      <c r="I15" s="115" t="s">
+      <c r="H15" s="115"/>
+      <c r="I15" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="116"/>
+      <c r="J15" s="111"/>
       <c r="K15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="107"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="14" t="s">
+      <c r="L15" s="102"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="82"/>
-    </row>
-    <row r="16" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="114"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="77"/>
+    </row>
+    <row r="16" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="109"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="81"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="82"/>
-    </row>
-    <row r="17" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="77"/>
+    </row>
+    <row r="17" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="109"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="82"/>
-    </row>
-    <row r="18" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="118"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="77"/>
+    </row>
+    <row r="18" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="113"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="82"/>
-    </row>
-    <row r="19" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="77"/>
+    </row>
+    <row r="19" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="109"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="82"/>
-    </row>
-    <row r="20" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="77"/>
+    </row>
+    <row r="20" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="109"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="82"/>
-    </row>
-    <row r="21" spans="1:29" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="77"/>
+    </row>
+    <row r="21" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="109"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="82"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -3642,1984 +3672,2004 @@
   </sheetPr>
   <dimension ref="A2:G242"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="54.125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="38" customWidth="1"/>
-    <col min="8" max="8" width="8" style="38" customWidth="1"/>
-    <col min="9" max="10" width="0" style="38" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8" style="38"/>
+    <col min="1" max="1" width="3.125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="54.125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="8" style="33" customWidth="1"/>
+    <col min="9" max="10" width="0" style="33" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8" style="33"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="40">
         <v>45568</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="47">
+      <c r="E5" s="41"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="40">
         <v>45575</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="47">
+      <c r="E6" s="41"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="40">
+        <v>45594</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="42">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="47"/>
-    </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="47"/>
+      <c r="B8" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="40">
+        <v>45594</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="47"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="47"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="47"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="47"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="47"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="47"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="47"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="52"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="52"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="52"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="52"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="52"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="43"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="52"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="52"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="52"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="52"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="52"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="43"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="52"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="52"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="52"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="55"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="50"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="55"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="50"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="55"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="50"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="55"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="50"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="55"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="55"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="55"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="50"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="55"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="50"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="55"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="50"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="55"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="50"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="55"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="50"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="55"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="50"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="55"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="50"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="55"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="50"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="55"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="50"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="55"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="55"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="55"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="50"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="55"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="55"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="55"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="50"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="55"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="50"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="55"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="50"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="55"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="50"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="55"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="50"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="55"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="50"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="55"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="50"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="55"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="50"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="55"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="50"/>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="55"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="50"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="55"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="50"/>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="55"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="50"/>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="55"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="50"/>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="55"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="50"/>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="55"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="50"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="55"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="50"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="55"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="50"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="55"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="50"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="55"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="50"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="55"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="50"/>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="55"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="50"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="55"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="50"/>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="55"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="50"/>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="55"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="50"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="55"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="50"/>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="55"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="50"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="55"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="50"/>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="55"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="50"/>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="55"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="50"/>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="55"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="50"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="55"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="50"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="55"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="50"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="53"/>
-      <c r="G83" s="55"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="50"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="55"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="50"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="53"/>
-      <c r="G85" s="55"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="50"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="55"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="50"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="55"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="50"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="55"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="50"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="55"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="50"/>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="55"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="50"/>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="55"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="50"/>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="55"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="50"/>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="53"/>
-      <c r="G93" s="55"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="50"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="55"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="50"/>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="55"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="50"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="55"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="50"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="55"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="50"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="55"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="50"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="55"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="50"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="55"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="50"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="55"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="50"/>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="55"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="49"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="50"/>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="53"/>
-      <c r="G103" s="55"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="50"/>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="55"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="50"/>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="53"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="55"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="50"/>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="53"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="55"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="50"/>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="55"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="50"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="55"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="50"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="53"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="55"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="50"/>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="53"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="55"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="50"/>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="53"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="55"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="50"/>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="53"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="55"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="50"/>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="53"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="55"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="50"/>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="53"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="55"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="50"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="53"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="54"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="55"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="50"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="53"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="54"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="55"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="50"/>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="53"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="54"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="55"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="49"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="50"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="53"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="54"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="55"/>
+      <c r="B118" s="48"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="50"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="53"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="55"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="50"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="53"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="55"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="50"/>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="53"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="55"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="50"/>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="53"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="55"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="50"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="55"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="50"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="53"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="55"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="49"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="50"/>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="53"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="55"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="50"/>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="53"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="55"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="49"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="53"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="54"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="55"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="49"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="50"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="53"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="55"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="50"/>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="53"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="53"/>
-      <c r="G129" s="55"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="49"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="50"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="53"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="53"/>
-      <c r="G130" s="55"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="50"/>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="53"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="55"/>
+      <c r="B131" s="48"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="49"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="50"/>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="55"/>
+      <c r="B132" s="48"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="50"/>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="54"/>
-      <c r="F133" s="53"/>
-      <c r="G133" s="55"/>
+      <c r="B133" s="48"/>
+      <c r="C133" s="48"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="50"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="53"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="55"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="48"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="50"/>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="53"/>
-      <c r="G135" s="55"/>
+      <c r="B135" s="48"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="50"/>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="54"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="55"/>
+      <c r="B136" s="48"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="49"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="50"/>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="53"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="54"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="55"/>
+      <c r="B137" s="48"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="50"/>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="53"/>
-      <c r="C138" s="53"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="54"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="55"/>
+      <c r="B138" s="48"/>
+      <c r="C138" s="48"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="50"/>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="53"/>
-      <c r="C139" s="53"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="53"/>
-      <c r="G139" s="55"/>
+      <c r="B139" s="48"/>
+      <c r="C139" s="48"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="50"/>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="53"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="54"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="55"/>
+      <c r="B140" s="48"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="50"/>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="53"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="54"/>
-      <c r="F141" s="53"/>
-      <c r="G141" s="55"/>
+      <c r="B141" s="48"/>
+      <c r="C141" s="48"/>
+      <c r="D141" s="49"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="50"/>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="53"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="54"/>
-      <c r="E142" s="54"/>
-      <c r="F142" s="53"/>
-      <c r="G142" s="55"/>
+      <c r="B142" s="48"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="50"/>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="53"/>
-      <c r="C143" s="53"/>
-      <c r="D143" s="54"/>
-      <c r="E143" s="54"/>
-      <c r="F143" s="53"/>
-      <c r="G143" s="55"/>
+      <c r="B143" s="48"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="50"/>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="53"/>
-      <c r="C144" s="53"/>
-      <c r="D144" s="54"/>
-      <c r="E144" s="54"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="55"/>
+      <c r="B144" s="48"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="49"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="50"/>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="53"/>
-      <c r="C145" s="53"/>
-      <c r="D145" s="54"/>
-      <c r="E145" s="54"/>
-      <c r="F145" s="53"/>
-      <c r="G145" s="55"/>
+      <c r="B145" s="48"/>
+      <c r="C145" s="48"/>
+      <c r="D145" s="49"/>
+      <c r="E145" s="49"/>
+      <c r="F145" s="48"/>
+      <c r="G145" s="50"/>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="53"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="54"/>
-      <c r="E146" s="54"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="55"/>
+      <c r="B146" s="48"/>
+      <c r="C146" s="48"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="48"/>
+      <c r="G146" s="50"/>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="53"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="53"/>
-      <c r="G147" s="55"/>
+      <c r="B147" s="48"/>
+      <c r="C147" s="48"/>
+      <c r="D147" s="49"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="48"/>
+      <c r="G147" s="50"/>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="53"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="54"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="55"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="50"/>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="53"/>
-      <c r="C149" s="53"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="54"/>
-      <c r="F149" s="53"/>
-      <c r="G149" s="55"/>
+      <c r="B149" s="48"/>
+      <c r="C149" s="48"/>
+      <c r="D149" s="49"/>
+      <c r="E149" s="49"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="50"/>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="53"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="54"/>
-      <c r="F150" s="53"/>
-      <c r="G150" s="55"/>
+      <c r="B150" s="48"/>
+      <c r="C150" s="48"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="48"/>
+      <c r="G150" s="50"/>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="53"/>
-      <c r="C151" s="53"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="54"/>
-      <c r="F151" s="53"/>
-      <c r="G151" s="55"/>
+      <c r="B151" s="48"/>
+      <c r="C151" s="48"/>
+      <c r="D151" s="49"/>
+      <c r="E151" s="49"/>
+      <c r="F151" s="48"/>
+      <c r="G151" s="50"/>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="53"/>
-      <c r="C152" s="53"/>
-      <c r="D152" s="54"/>
-      <c r="E152" s="54"/>
-      <c r="F152" s="53"/>
-      <c r="G152" s="55"/>
+      <c r="B152" s="48"/>
+      <c r="C152" s="48"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="50"/>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="53"/>
-      <c r="C153" s="53"/>
-      <c r="D153" s="54"/>
-      <c r="E153" s="54"/>
-      <c r="F153" s="53"/>
-      <c r="G153" s="55"/>
+      <c r="B153" s="48"/>
+      <c r="C153" s="48"/>
+      <c r="D153" s="49"/>
+      <c r="E153" s="49"/>
+      <c r="F153" s="48"/>
+      <c r="G153" s="50"/>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="53"/>
-      <c r="C154" s="53"/>
-      <c r="D154" s="54"/>
-      <c r="E154" s="54"/>
-      <c r="F154" s="53"/>
-      <c r="G154" s="55"/>
+      <c r="B154" s="48"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="49"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="50"/>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="53"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="54"/>
-      <c r="F155" s="53"/>
-      <c r="G155" s="55"/>
+      <c r="B155" s="48"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="49"/>
+      <c r="E155" s="49"/>
+      <c r="F155" s="48"/>
+      <c r="G155" s="50"/>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="53"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="54"/>
-      <c r="E156" s="54"/>
-      <c r="F156" s="53"/>
-      <c r="G156" s="55"/>
+      <c r="B156" s="48"/>
+      <c r="C156" s="48"/>
+      <c r="D156" s="49"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="50"/>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="53"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="54"/>
-      <c r="E157" s="54"/>
-      <c r="F157" s="53"/>
-      <c r="G157" s="55"/>
+      <c r="B157" s="48"/>
+      <c r="C157" s="48"/>
+      <c r="D157" s="49"/>
+      <c r="E157" s="49"/>
+      <c r="F157" s="48"/>
+      <c r="G157" s="50"/>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="53"/>
-      <c r="C158" s="53"/>
-      <c r="D158" s="54"/>
-      <c r="E158" s="54"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="55"/>
+      <c r="B158" s="48"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="49"/>
+      <c r="E158" s="49"/>
+      <c r="F158" s="48"/>
+      <c r="G158" s="50"/>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="53"/>
-      <c r="C159" s="53"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="54"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="55"/>
+      <c r="B159" s="48"/>
+      <c r="C159" s="48"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="49"/>
+      <c r="F159" s="48"/>
+      <c r="G159" s="50"/>
     </row>
     <row r="160" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="53"/>
-      <c r="C160" s="53"/>
-      <c r="D160" s="54"/>
-      <c r="E160" s="54"/>
-      <c r="F160" s="53"/>
-      <c r="G160" s="55"/>
+      <c r="B160" s="48"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="49"/>
+      <c r="E160" s="49"/>
+      <c r="F160" s="48"/>
+      <c r="G160" s="50"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="53"/>
-      <c r="C161" s="53"/>
-      <c r="D161" s="54"/>
-      <c r="E161" s="54"/>
-      <c r="F161" s="53"/>
-      <c r="G161" s="55"/>
+      <c r="B161" s="48"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="49"/>
+      <c r="E161" s="49"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="50"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="53"/>
-      <c r="C162" s="53"/>
-      <c r="D162" s="54"/>
-      <c r="E162" s="54"/>
-      <c r="F162" s="53"/>
-      <c r="G162" s="55"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="48"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="48"/>
+      <c r="G162" s="50"/>
     </row>
     <row r="163" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="53"/>
-      <c r="C163" s="53"/>
-      <c r="D163" s="54"/>
-      <c r="E163" s="54"/>
-      <c r="F163" s="53"/>
-      <c r="G163" s="55"/>
+      <c r="B163" s="48"/>
+      <c r="C163" s="48"/>
+      <c r="D163" s="49"/>
+      <c r="E163" s="49"/>
+      <c r="F163" s="48"/>
+      <c r="G163" s="50"/>
     </row>
     <row r="164" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="53"/>
-      <c r="C164" s="53"/>
-      <c r="D164" s="54"/>
-      <c r="E164" s="54"/>
-      <c r="F164" s="53"/>
-      <c r="G164" s="55"/>
+      <c r="B164" s="48"/>
+      <c r="C164" s="48"/>
+      <c r="D164" s="49"/>
+      <c r="E164" s="49"/>
+      <c r="F164" s="48"/>
+      <c r="G164" s="50"/>
     </row>
     <row r="165" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="53"/>
-      <c r="C165" s="53"/>
-      <c r="D165" s="54"/>
-      <c r="E165" s="54"/>
-      <c r="F165" s="53"/>
-      <c r="G165" s="55"/>
+      <c r="B165" s="48"/>
+      <c r="C165" s="48"/>
+      <c r="D165" s="49"/>
+      <c r="E165" s="49"/>
+      <c r="F165" s="48"/>
+      <c r="G165" s="50"/>
     </row>
     <row r="166" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="53"/>
-      <c r="C166" s="53"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="54"/>
-      <c r="F166" s="53"/>
-      <c r="G166" s="55"/>
+      <c r="B166" s="48"/>
+      <c r="C166" s="48"/>
+      <c r="D166" s="49"/>
+      <c r="E166" s="49"/>
+      <c r="F166" s="48"/>
+      <c r="G166" s="50"/>
     </row>
     <row r="167" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="53"/>
-      <c r="C167" s="53"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="54"/>
-      <c r="F167" s="53"/>
-      <c r="G167" s="55"/>
+      <c r="B167" s="48"/>
+      <c r="C167" s="48"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="49"/>
+      <c r="F167" s="48"/>
+      <c r="G167" s="50"/>
     </row>
     <row r="168" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="53"/>
-      <c r="C168" s="53"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="54"/>
-      <c r="F168" s="53"/>
-      <c r="G168" s="55"/>
+      <c r="B168" s="48"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="48"/>
+      <c r="G168" s="50"/>
     </row>
     <row r="169" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="53"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="54"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="55"/>
+      <c r="B169" s="48"/>
+      <c r="C169" s="48"/>
+      <c r="D169" s="49"/>
+      <c r="E169" s="49"/>
+      <c r="F169" s="48"/>
+      <c r="G169" s="50"/>
     </row>
     <row r="170" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="53"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="54"/>
-      <c r="E170" s="54"/>
-      <c r="F170" s="53"/>
-      <c r="G170" s="55"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="48"/>
+      <c r="D170" s="49"/>
+      <c r="E170" s="49"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="50"/>
     </row>
     <row r="171" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="53"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="53"/>
-      <c r="G171" s="55"/>
+      <c r="B171" s="48"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="49"/>
+      <c r="E171" s="49"/>
+      <c r="F171" s="48"/>
+      <c r="G171" s="50"/>
     </row>
     <row r="172" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="53"/>
-      <c r="C172" s="53"/>
-      <c r="D172" s="54"/>
-      <c r="E172" s="54"/>
-      <c r="F172" s="53"/>
-      <c r="G172" s="55"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="48"/>
+      <c r="G172" s="50"/>
     </row>
     <row r="173" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="53"/>
-      <c r="C173" s="53"/>
-      <c r="D173" s="54"/>
-      <c r="E173" s="54"/>
-      <c r="F173" s="53"/>
-      <c r="G173" s="55"/>
+      <c r="B173" s="48"/>
+      <c r="C173" s="48"/>
+      <c r="D173" s="49"/>
+      <c r="E173" s="49"/>
+      <c r="F173" s="48"/>
+      <c r="G173" s="50"/>
     </row>
     <row r="174" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="53"/>
-      <c r="C174" s="53"/>
-      <c r="D174" s="54"/>
-      <c r="E174" s="54"/>
-      <c r="F174" s="53"/>
-      <c r="G174" s="55"/>
+      <c r="B174" s="48"/>
+      <c r="C174" s="48"/>
+      <c r="D174" s="49"/>
+      <c r="E174" s="49"/>
+      <c r="F174" s="48"/>
+      <c r="G174" s="50"/>
     </row>
     <row r="175" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="53"/>
-      <c r="C175" s="53"/>
-      <c r="D175" s="54"/>
-      <c r="E175" s="54"/>
-      <c r="F175" s="53"/>
-      <c r="G175" s="55"/>
+      <c r="B175" s="48"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="49"/>
+      <c r="E175" s="49"/>
+      <c r="F175" s="48"/>
+      <c r="G175" s="50"/>
     </row>
     <row r="176" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="53"/>
-      <c r="C176" s="53"/>
-      <c r="D176" s="54"/>
-      <c r="E176" s="54"/>
-      <c r="F176" s="53"/>
-      <c r="G176" s="55"/>
+      <c r="B176" s="48"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="49"/>
+      <c r="E176" s="49"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="50"/>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="54"/>
-      <c r="E177" s="54"/>
-      <c r="F177" s="53"/>
-      <c r="G177" s="55"/>
+      <c r="B177" s="48"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="49"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="50"/>
     </row>
     <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="53"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="54"/>
-      <c r="E178" s="54"/>
-      <c r="F178" s="53"/>
-      <c r="G178" s="55"/>
+      <c r="B178" s="48"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="49"/>
+      <c r="E178" s="49"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="50"/>
     </row>
     <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="53"/>
-      <c r="C179" s="53"/>
-      <c r="D179" s="54"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="53"/>
-      <c r="G179" s="55"/>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="49"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="50"/>
     </row>
     <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="53"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="53"/>
-      <c r="G180" s="55"/>
+      <c r="B180" s="48"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="49"/>
+      <c r="E180" s="49"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="50"/>
     </row>
     <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="53"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="54"/>
-      <c r="E181" s="54"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="55"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="49"/>
+      <c r="E181" s="49"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="50"/>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="53"/>
-      <c r="C182" s="53"/>
-      <c r="D182" s="54"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="53"/>
-      <c r="G182" s="55"/>
+      <c r="B182" s="48"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="49"/>
+      <c r="E182" s="49"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="50"/>
     </row>
     <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="53"/>
-      <c r="C183" s="53"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="53"/>
-      <c r="G183" s="55"/>
+      <c r="B183" s="48"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="49"/>
+      <c r="E183" s="49"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="50"/>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="53"/>
-      <c r="C184" s="53"/>
-      <c r="D184" s="54"/>
-      <c r="E184" s="54"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="55"/>
+      <c r="B184" s="48"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="49"/>
+      <c r="E184" s="49"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="50"/>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="53"/>
-      <c r="C185" s="53"/>
-      <c r="D185" s="54"/>
-      <c r="E185" s="54"/>
-      <c r="F185" s="53"/>
-      <c r="G185" s="55"/>
+      <c r="B185" s="48"/>
+      <c r="C185" s="48"/>
+      <c r="D185" s="49"/>
+      <c r="E185" s="49"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="50"/>
     </row>
     <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="53"/>
-      <c r="C186" s="53"/>
-      <c r="D186" s="54"/>
-      <c r="E186" s="54"/>
-      <c r="F186" s="53"/>
-      <c r="G186" s="55"/>
+      <c r="B186" s="48"/>
+      <c r="C186" s="48"/>
+      <c r="D186" s="49"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="48"/>
+      <c r="G186" s="50"/>
     </row>
     <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="53"/>
-      <c r="C187" s="53"/>
-      <c r="D187" s="54"/>
-      <c r="E187" s="54"/>
-      <c r="F187" s="53"/>
-      <c r="G187" s="55"/>
+      <c r="B187" s="48"/>
+      <c r="C187" s="48"/>
+      <c r="D187" s="49"/>
+      <c r="E187" s="49"/>
+      <c r="F187" s="48"/>
+      <c r="G187" s="50"/>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="53"/>
-      <c r="C188" s="53"/>
-      <c r="D188" s="54"/>
-      <c r="E188" s="54"/>
-      <c r="F188" s="53"/>
-      <c r="G188" s="55"/>
+      <c r="B188" s="48"/>
+      <c r="C188" s="48"/>
+      <c r="D188" s="49"/>
+      <c r="E188" s="49"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="50"/>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="53"/>
-      <c r="C189" s="53"/>
-      <c r="D189" s="54"/>
-      <c r="E189" s="54"/>
-      <c r="F189" s="53"/>
-      <c r="G189" s="55"/>
+      <c r="B189" s="48"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="49"/>
+      <c r="E189" s="49"/>
+      <c r="F189" s="48"/>
+      <c r="G189" s="50"/>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="53"/>
-      <c r="C190" s="53"/>
-      <c r="D190" s="54"/>
-      <c r="E190" s="54"/>
-      <c r="F190" s="53"/>
-      <c r="G190" s="55"/>
+      <c r="B190" s="48"/>
+      <c r="C190" s="48"/>
+      <c r="D190" s="49"/>
+      <c r="E190" s="49"/>
+      <c r="F190" s="48"/>
+      <c r="G190" s="50"/>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="53"/>
-      <c r="C191" s="53"/>
-      <c r="D191" s="54"/>
-      <c r="E191" s="54"/>
-      <c r="F191" s="53"/>
-      <c r="G191" s="55"/>
+      <c r="B191" s="48"/>
+      <c r="C191" s="48"/>
+      <c r="D191" s="49"/>
+      <c r="E191" s="49"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="50"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="53"/>
-      <c r="C192" s="53"/>
-      <c r="D192" s="54"/>
-      <c r="E192" s="54"/>
-      <c r="F192" s="53"/>
-      <c r="G192" s="55"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="48"/>
+      <c r="D192" s="49"/>
+      <c r="E192" s="49"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="50"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="53"/>
-      <c r="C193" s="53"/>
-      <c r="D193" s="54"/>
-      <c r="E193" s="54"/>
-      <c r="F193" s="53"/>
-      <c r="G193" s="55"/>
+      <c r="B193" s="48"/>
+      <c r="C193" s="48"/>
+      <c r="D193" s="49"/>
+      <c r="E193" s="49"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="50"/>
     </row>
     <row r="194" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="53"/>
-      <c r="C194" s="53"/>
-      <c r="D194" s="54"/>
-      <c r="E194" s="54"/>
-      <c r="F194" s="53"/>
-      <c r="G194" s="55"/>
+      <c r="B194" s="48"/>
+      <c r="C194" s="48"/>
+      <c r="D194" s="49"/>
+      <c r="E194" s="49"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="50"/>
     </row>
     <row r="195" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="53"/>
-      <c r="C195" s="53"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="53"/>
-      <c r="G195" s="55"/>
+      <c r="B195" s="48"/>
+      <c r="C195" s="48"/>
+      <c r="D195" s="49"/>
+      <c r="E195" s="49"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="50"/>
     </row>
     <row r="196" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="53"/>
-      <c r="C196" s="53"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="53"/>
-      <c r="G196" s="55"/>
+      <c r="B196" s="48"/>
+      <c r="C196" s="48"/>
+      <c r="D196" s="49"/>
+      <c r="E196" s="49"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="50"/>
     </row>
     <row r="197" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="53"/>
-      <c r="C197" s="53"/>
-      <c r="D197" s="54"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="53"/>
-      <c r="G197" s="55"/>
+      <c r="B197" s="48"/>
+      <c r="C197" s="48"/>
+      <c r="D197" s="49"/>
+      <c r="E197" s="49"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="50"/>
     </row>
     <row r="198" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="53"/>
-      <c r="C198" s="53"/>
-      <c r="D198" s="54"/>
-      <c r="E198" s="54"/>
-      <c r="F198" s="53"/>
-      <c r="G198" s="55"/>
+      <c r="B198" s="48"/>
+      <c r="C198" s="48"/>
+      <c r="D198" s="49"/>
+      <c r="E198" s="49"/>
+      <c r="F198" s="48"/>
+      <c r="G198" s="50"/>
     </row>
     <row r="199" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="53"/>
-      <c r="C199" s="53"/>
-      <c r="D199" s="54"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="53"/>
-      <c r="G199" s="55"/>
+      <c r="B199" s="48"/>
+      <c r="C199" s="48"/>
+      <c r="D199" s="49"/>
+      <c r="E199" s="49"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="50"/>
     </row>
     <row r="200" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="53"/>
-      <c r="C200" s="53"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="53"/>
-      <c r="G200" s="55"/>
+      <c r="B200" s="48"/>
+      <c r="C200" s="48"/>
+      <c r="D200" s="49"/>
+      <c r="E200" s="49"/>
+      <c r="F200" s="48"/>
+      <c r="G200" s="50"/>
     </row>
     <row r="201" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="53"/>
-      <c r="C201" s="53"/>
-      <c r="D201" s="54"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="53"/>
-      <c r="G201" s="55"/>
+      <c r="B201" s="48"/>
+      <c r="C201" s="48"/>
+      <c r="D201" s="49"/>
+      <c r="E201" s="49"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="50"/>
     </row>
     <row r="202" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="53"/>
-      <c r="C202" s="53"/>
-      <c r="D202" s="54"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="53"/>
-      <c r="G202" s="55"/>
+      <c r="B202" s="48"/>
+      <c r="C202" s="48"/>
+      <c r="D202" s="49"/>
+      <c r="E202" s="49"/>
+      <c r="F202" s="48"/>
+      <c r="G202" s="50"/>
     </row>
     <row r="203" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="53"/>
-      <c r="C203" s="53"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="54"/>
-      <c r="F203" s="53"/>
-      <c r="G203" s="55"/>
+      <c r="B203" s="48"/>
+      <c r="C203" s="48"/>
+      <c r="D203" s="49"/>
+      <c r="E203" s="49"/>
+      <c r="F203" s="48"/>
+      <c r="G203" s="50"/>
     </row>
     <row r="204" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="53"/>
-      <c r="C204" s="53"/>
-      <c r="D204" s="54"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="53"/>
-      <c r="G204" s="55"/>
+      <c r="B204" s="48"/>
+      <c r="C204" s="48"/>
+      <c r="D204" s="49"/>
+      <c r="E204" s="49"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="50"/>
     </row>
     <row r="205" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="53"/>
-      <c r="C205" s="53"/>
-      <c r="D205" s="54"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="53"/>
-      <c r="G205" s="55"/>
+      <c r="B205" s="48"/>
+      <c r="C205" s="48"/>
+      <c r="D205" s="49"/>
+      <c r="E205" s="49"/>
+      <c r="F205" s="48"/>
+      <c r="G205" s="50"/>
     </row>
     <row r="206" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="53"/>
-      <c r="C206" s="53"/>
-      <c r="D206" s="54"/>
-      <c r="E206" s="54"/>
-      <c r="F206" s="53"/>
-      <c r="G206" s="55"/>
+      <c r="B206" s="48"/>
+      <c r="C206" s="48"/>
+      <c r="D206" s="49"/>
+      <c r="E206" s="49"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="50"/>
     </row>
     <row r="207" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="53"/>
-      <c r="C207" s="53"/>
-      <c r="D207" s="54"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="53"/>
-      <c r="G207" s="55"/>
+      <c r="B207" s="48"/>
+      <c r="C207" s="48"/>
+      <c r="D207" s="49"/>
+      <c r="E207" s="49"/>
+      <c r="F207" s="48"/>
+      <c r="G207" s="50"/>
     </row>
     <row r="208" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="53"/>
-      <c r="C208" s="53"/>
-      <c r="D208" s="54"/>
-      <c r="E208" s="54"/>
-      <c r="F208" s="53"/>
-      <c r="G208" s="55"/>
+      <c r="B208" s="48"/>
+      <c r="C208" s="48"/>
+      <c r="D208" s="49"/>
+      <c r="E208" s="49"/>
+      <c r="F208" s="48"/>
+      <c r="G208" s="50"/>
     </row>
     <row r="209" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="53"/>
-      <c r="C209" s="53"/>
-      <c r="D209" s="54"/>
-      <c r="E209" s="54"/>
-      <c r="F209" s="53"/>
-      <c r="G209" s="55"/>
+      <c r="B209" s="48"/>
+      <c r="C209" s="48"/>
+      <c r="D209" s="49"/>
+      <c r="E209" s="49"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="50"/>
     </row>
     <row r="210" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="53"/>
-      <c r="C210" s="53"/>
-      <c r="D210" s="54"/>
-      <c r="E210" s="54"/>
-      <c r="F210" s="53"/>
-      <c r="G210" s="55"/>
+      <c r="B210" s="48"/>
+      <c r="C210" s="48"/>
+      <c r="D210" s="49"/>
+      <c r="E210" s="49"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="50"/>
     </row>
     <row r="211" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="53"/>
-      <c r="C211" s="53"/>
-      <c r="D211" s="54"/>
-      <c r="E211" s="54"/>
-      <c r="F211" s="53"/>
-      <c r="G211" s="55"/>
+      <c r="B211" s="48"/>
+      <c r="C211" s="48"/>
+      <c r="D211" s="49"/>
+      <c r="E211" s="49"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="50"/>
     </row>
     <row r="212" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="53"/>
-      <c r="C212" s="53"/>
-      <c r="D212" s="54"/>
-      <c r="E212" s="54"/>
-      <c r="F212" s="53"/>
-      <c r="G212" s="55"/>
+      <c r="B212" s="48"/>
+      <c r="C212" s="48"/>
+      <c r="D212" s="49"/>
+      <c r="E212" s="49"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="50"/>
     </row>
     <row r="213" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="53"/>
-      <c r="C213" s="53"/>
-      <c r="D213" s="54"/>
-      <c r="E213" s="54"/>
-      <c r="F213" s="53"/>
-      <c r="G213" s="55"/>
+      <c r="B213" s="48"/>
+      <c r="C213" s="48"/>
+      <c r="D213" s="49"/>
+      <c r="E213" s="49"/>
+      <c r="F213" s="48"/>
+      <c r="G213" s="50"/>
     </row>
     <row r="214" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="53"/>
-      <c r="C214" s="53"/>
-      <c r="D214" s="54"/>
-      <c r="E214" s="54"/>
-      <c r="F214" s="53"/>
-      <c r="G214" s="55"/>
+      <c r="B214" s="48"/>
+      <c r="C214" s="48"/>
+      <c r="D214" s="49"/>
+      <c r="E214" s="49"/>
+      <c r="F214" s="48"/>
+      <c r="G214" s="50"/>
     </row>
     <row r="215" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="53"/>
-      <c r="C215" s="53"/>
-      <c r="D215" s="54"/>
-      <c r="E215" s="54"/>
-      <c r="F215" s="53"/>
-      <c r="G215" s="55"/>
+      <c r="B215" s="48"/>
+      <c r="C215" s="48"/>
+      <c r="D215" s="49"/>
+      <c r="E215" s="49"/>
+      <c r="F215" s="48"/>
+      <c r="G215" s="50"/>
     </row>
     <row r="216" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="53"/>
-      <c r="C216" s="53"/>
-      <c r="D216" s="54"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="53"/>
-      <c r="G216" s="55"/>
+      <c r="B216" s="48"/>
+      <c r="C216" s="48"/>
+      <c r="D216" s="49"/>
+      <c r="E216" s="49"/>
+      <c r="F216" s="48"/>
+      <c r="G216" s="50"/>
     </row>
     <row r="217" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="53"/>
-      <c r="C217" s="53"/>
-      <c r="D217" s="54"/>
-      <c r="E217" s="54"/>
-      <c r="F217" s="53"/>
-      <c r="G217" s="55"/>
+      <c r="B217" s="48"/>
+      <c r="C217" s="48"/>
+      <c r="D217" s="49"/>
+      <c r="E217" s="49"/>
+      <c r="F217" s="48"/>
+      <c r="G217" s="50"/>
     </row>
     <row r="218" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="53"/>
-      <c r="C218" s="53"/>
-      <c r="D218" s="54"/>
-      <c r="E218" s="54"/>
-      <c r="F218" s="53"/>
-      <c r="G218" s="55"/>
+      <c r="B218" s="48"/>
+      <c r="C218" s="48"/>
+      <c r="D218" s="49"/>
+      <c r="E218" s="49"/>
+      <c r="F218" s="48"/>
+      <c r="G218" s="50"/>
     </row>
     <row r="219" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="53"/>
-      <c r="C219" s="53"/>
-      <c r="D219" s="54"/>
-      <c r="E219" s="54"/>
-      <c r="F219" s="53"/>
-      <c r="G219" s="55"/>
+      <c r="B219" s="48"/>
+      <c r="C219" s="48"/>
+      <c r="D219" s="49"/>
+      <c r="E219" s="49"/>
+      <c r="F219" s="48"/>
+      <c r="G219" s="50"/>
     </row>
     <row r="220" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="53"/>
-      <c r="C220" s="53"/>
-      <c r="D220" s="54"/>
-      <c r="E220" s="54"/>
-      <c r="F220" s="53"/>
-      <c r="G220" s="55"/>
+      <c r="B220" s="48"/>
+      <c r="C220" s="48"/>
+      <c r="D220" s="49"/>
+      <c r="E220" s="49"/>
+      <c r="F220" s="48"/>
+      <c r="G220" s="50"/>
     </row>
     <row r="221" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="53"/>
-      <c r="C221" s="53"/>
-      <c r="D221" s="54"/>
-      <c r="E221" s="54"/>
-      <c r="F221" s="53"/>
-      <c r="G221" s="55"/>
+      <c r="B221" s="48"/>
+      <c r="C221" s="48"/>
+      <c r="D221" s="49"/>
+      <c r="E221" s="49"/>
+      <c r="F221" s="48"/>
+      <c r="G221" s="50"/>
     </row>
     <row r="222" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="53"/>
-      <c r="C222" s="53"/>
-      <c r="D222" s="54"/>
-      <c r="E222" s="54"/>
-      <c r="F222" s="53"/>
-      <c r="G222" s="55"/>
+      <c r="B222" s="48"/>
+      <c r="C222" s="48"/>
+      <c r="D222" s="49"/>
+      <c r="E222" s="49"/>
+      <c r="F222" s="48"/>
+      <c r="G222" s="50"/>
     </row>
     <row r="223" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="53"/>
-      <c r="C223" s="53"/>
-      <c r="D223" s="54"/>
-      <c r="E223" s="54"/>
-      <c r="F223" s="53"/>
-      <c r="G223" s="55"/>
+      <c r="B223" s="48"/>
+      <c r="C223" s="48"/>
+      <c r="D223" s="49"/>
+      <c r="E223" s="49"/>
+      <c r="F223" s="48"/>
+      <c r="G223" s="50"/>
     </row>
     <row r="224" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="53"/>
-      <c r="C224" s="53"/>
-      <c r="D224" s="54"/>
-      <c r="E224" s="54"/>
-      <c r="F224" s="53"/>
-      <c r="G224" s="55"/>
+      <c r="B224" s="48"/>
+      <c r="C224" s="48"/>
+      <c r="D224" s="49"/>
+      <c r="E224" s="49"/>
+      <c r="F224" s="48"/>
+      <c r="G224" s="50"/>
     </row>
     <row r="225" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="53"/>
-      <c r="C225" s="53"/>
-      <c r="D225" s="54"/>
-      <c r="E225" s="54"/>
-      <c r="F225" s="53"/>
-      <c r="G225" s="55"/>
+      <c r="B225" s="48"/>
+      <c r="C225" s="48"/>
+      <c r="D225" s="49"/>
+      <c r="E225" s="49"/>
+      <c r="F225" s="48"/>
+      <c r="G225" s="50"/>
     </row>
     <row r="226" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="53"/>
-      <c r="C226" s="53"/>
-      <c r="D226" s="54"/>
-      <c r="E226" s="54"/>
-      <c r="F226" s="53"/>
-      <c r="G226" s="55"/>
+      <c r="B226" s="48"/>
+      <c r="C226" s="48"/>
+      <c r="D226" s="49"/>
+      <c r="E226" s="49"/>
+      <c r="F226" s="48"/>
+      <c r="G226" s="50"/>
     </row>
     <row r="227" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="53"/>
-      <c r="C227" s="53"/>
-      <c r="D227" s="54"/>
-      <c r="E227" s="54"/>
-      <c r="F227" s="53"/>
-      <c r="G227" s="55"/>
+      <c r="B227" s="48"/>
+      <c r="C227" s="48"/>
+      <c r="D227" s="49"/>
+      <c r="E227" s="49"/>
+      <c r="F227" s="48"/>
+      <c r="G227" s="50"/>
     </row>
     <row r="228" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="53"/>
-      <c r="C228" s="53"/>
-      <c r="D228" s="54"/>
-      <c r="E228" s="54"/>
-      <c r="F228" s="53"/>
-      <c r="G228" s="55"/>
+      <c r="B228" s="48"/>
+      <c r="C228" s="48"/>
+      <c r="D228" s="49"/>
+      <c r="E228" s="49"/>
+      <c r="F228" s="48"/>
+      <c r="G228" s="50"/>
     </row>
     <row r="229" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="53"/>
-      <c r="C229" s="53"/>
-      <c r="D229" s="54"/>
-      <c r="E229" s="54"/>
-      <c r="F229" s="53"/>
-      <c r="G229" s="55"/>
+      <c r="B229" s="48"/>
+      <c r="C229" s="48"/>
+      <c r="D229" s="49"/>
+      <c r="E229" s="49"/>
+      <c r="F229" s="48"/>
+      <c r="G229" s="50"/>
     </row>
     <row r="230" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="53"/>
-      <c r="C230" s="53"/>
-      <c r="D230" s="54"/>
-      <c r="E230" s="54"/>
-      <c r="F230" s="53"/>
-      <c r="G230" s="55"/>
+      <c r="B230" s="48"/>
+      <c r="C230" s="48"/>
+      <c r="D230" s="49"/>
+      <c r="E230" s="49"/>
+      <c r="F230" s="48"/>
+      <c r="G230" s="50"/>
     </row>
     <row r="231" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="53"/>
-      <c r="C231" s="53"/>
-      <c r="D231" s="54"/>
-      <c r="E231" s="54"/>
-      <c r="F231" s="53"/>
-      <c r="G231" s="55"/>
+      <c r="B231" s="48"/>
+      <c r="C231" s="48"/>
+      <c r="D231" s="49"/>
+      <c r="E231" s="49"/>
+      <c r="F231" s="48"/>
+      <c r="G231" s="50"/>
     </row>
     <row r="232" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="53"/>
-      <c r="C232" s="53"/>
-      <c r="D232" s="54"/>
-      <c r="E232" s="54"/>
-      <c r="F232" s="53"/>
-      <c r="G232" s="55"/>
+      <c r="B232" s="48"/>
+      <c r="C232" s="48"/>
+      <c r="D232" s="49"/>
+      <c r="E232" s="49"/>
+      <c r="F232" s="48"/>
+      <c r="G232" s="50"/>
     </row>
     <row r="233" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="53"/>
-      <c r="C233" s="53"/>
-      <c r="D233" s="54"/>
-      <c r="E233" s="54"/>
-      <c r="F233" s="53"/>
-      <c r="G233" s="55"/>
+      <c r="B233" s="48"/>
+      <c r="C233" s="48"/>
+      <c r="D233" s="49"/>
+      <c r="E233" s="49"/>
+      <c r="F233" s="48"/>
+      <c r="G233" s="50"/>
     </row>
     <row r="234" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="53"/>
-      <c r="C234" s="53"/>
-      <c r="D234" s="54"/>
-      <c r="E234" s="54"/>
-      <c r="F234" s="53"/>
-      <c r="G234" s="55"/>
+      <c r="B234" s="48"/>
+      <c r="C234" s="48"/>
+      <c r="D234" s="49"/>
+      <c r="E234" s="49"/>
+      <c r="F234" s="48"/>
+      <c r="G234" s="50"/>
     </row>
     <row r="235" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="53"/>
-      <c r="C235" s="53"/>
-      <c r="D235" s="54"/>
-      <c r="E235" s="54"/>
-      <c r="F235" s="53"/>
-      <c r="G235" s="55"/>
+      <c r="B235" s="48"/>
+      <c r="C235" s="48"/>
+      <c r="D235" s="49"/>
+      <c r="E235" s="49"/>
+      <c r="F235" s="48"/>
+      <c r="G235" s="50"/>
     </row>
     <row r="236" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="53"/>
-      <c r="C236" s="53"/>
-      <c r="D236" s="54"/>
-      <c r="E236" s="54"/>
-      <c r="F236" s="53"/>
-      <c r="G236" s="55"/>
+      <c r="B236" s="48"/>
+      <c r="C236" s="48"/>
+      <c r="D236" s="49"/>
+      <c r="E236" s="49"/>
+      <c r="F236" s="48"/>
+      <c r="G236" s="50"/>
     </row>
     <row r="237" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="53"/>
-      <c r="C237" s="53"/>
-      <c r="D237" s="54"/>
-      <c r="E237" s="54"/>
-      <c r="F237" s="53"/>
-      <c r="G237" s="55"/>
+      <c r="B237" s="48"/>
+      <c r="C237" s="48"/>
+      <c r="D237" s="49"/>
+      <c r="E237" s="49"/>
+      <c r="F237" s="48"/>
+      <c r="G237" s="50"/>
     </row>
     <row r="238" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="53"/>
-      <c r="C238" s="53"/>
-      <c r="D238" s="54"/>
-      <c r="E238" s="54"/>
-      <c r="F238" s="53"/>
-      <c r="G238" s="55"/>
+      <c r="B238" s="48"/>
+      <c r="C238" s="48"/>
+      <c r="D238" s="49"/>
+      <c r="E238" s="49"/>
+      <c r="F238" s="48"/>
+      <c r="G238" s="50"/>
     </row>
     <row r="239" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="53"/>
-      <c r="C239" s="53"/>
-      <c r="D239" s="54"/>
-      <c r="E239" s="54"/>
-      <c r="F239" s="53"/>
-      <c r="G239" s="55"/>
+      <c r="B239" s="48"/>
+      <c r="C239" s="48"/>
+      <c r="D239" s="49"/>
+      <c r="E239" s="49"/>
+      <c r="F239" s="48"/>
+      <c r="G239" s="50"/>
     </row>
     <row r="240" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="53"/>
-      <c r="C240" s="53"/>
-      <c r="D240" s="54"/>
-      <c r="E240" s="54"/>
-      <c r="F240" s="53"/>
-      <c r="G240" s="55"/>
+      <c r="B240" s="48"/>
+      <c r="C240" s="48"/>
+      <c r="D240" s="49"/>
+      <c r="E240" s="49"/>
+      <c r="F240" s="48"/>
+      <c r="G240" s="50"/>
     </row>
     <row r="241" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="53"/>
-      <c r="C241" s="53"/>
-      <c r="D241" s="54"/>
-      <c r="E241" s="54"/>
-      <c r="F241" s="53"/>
-      <c r="G241" s="55"/>
+      <c r="B241" s="48"/>
+      <c r="C241" s="48"/>
+      <c r="D241" s="49"/>
+      <c r="E241" s="49"/>
+      <c r="F241" s="48"/>
+      <c r="G241" s="50"/>
     </row>
     <row r="242" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="53"/>
-      <c r="C242" s="53"/>
-      <c r="D242" s="54"/>
-      <c r="E242" s="54"/>
-      <c r="F242" s="53"/>
-      <c r="G242" s="55"/>
+      <c r="B242" s="48"/>
+      <c r="C242" s="48"/>
+      <c r="D242" s="49"/>
+      <c r="E242" s="49"/>
+      <c r="F242" s="48"/>
+      <c r="G242" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:G206" xr:uid="{00000000-0009-0000-0000-000001000000}">
@@ -5742,8 +5792,8 @@
   </sheetPr>
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5756,23 +5806,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+    </row>
+    <row r="4" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="134" t="s">
+        <v>113</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="51" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5780,23 +5832,27 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="135">
+        <v>3</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="15">
+        <v>45573</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -5878,65 +5934,73 @@
       <c r="E16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" s="13" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="137" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="138" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="142"/>
+    </row>
+    <row r="19" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="138"/>
+    </row>
+    <row r="20" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="138"/>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="138"/>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
@@ -5958,7 +6022,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5967,7 +6031,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5987,23 +6051,23 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6011,43 +6075,43 @@
       <c r="D11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+      <c r="B18" s="32"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="zv3IcMyQ+b9d+cRrqmz5jNS2YpSgRTm3+c2/N7tYsJTncnBZ7OCH8yxv83rK0MWG+0YA6peEieWXzGf4hv/g+w==" saltValue="k830diYFyTK3yxwjP65REw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
+++ b/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SkorkovskyFil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KucharJan\Documents\ProjektPXPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8723977-7BC5-4E6D-9492-6E32EBE9D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01423C4-32D0-4124-A839-E9BF9DA7A9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -413,9 +413,6 @@
     <t>Honza kuchař</t>
   </si>
   <si>
-    <t>asistent: Filip</t>
-  </si>
-  <si>
     <t>Grafický návrh</t>
   </si>
   <si>
@@ -423,6 +420,9 @@
   </si>
   <si>
     <t>Registrace na wordpress, vytvoření githubu a násladné pozvání všech členů.</t>
+  </si>
+  <si>
+    <t>asistent: Filip; nelze</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,6 +763,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1228,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1432,6 +1438,33 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1538,7 +1571,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1592,33 +1628,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2332,13 +2341,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
       <c r="F1" s="64"/>
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
@@ -2349,28 +2358,28 @@
       <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="107"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="107"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="107"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
@@ -2419,53 +2428,53 @@
       <c r="A13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
@@ -2515,45 +2524,45 @@
       <c r="B26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
@@ -2613,61 +2622,61 @@
       <c r="B40" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
     </row>
     <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C41" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="93"/>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
     </row>
     <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="93"/>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="84"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="93"/>
     </row>
     <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
@@ -2679,10 +2688,10 @@
       <c r="C48" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D48" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="87"/>
+      <c r="E48" s="96"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
@@ -2694,10 +2703,10 @@
       <c r="C49" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="79">
+      <c r="D49" s="88">
         <v>0</v>
       </c>
-      <c r="E49" s="79"/>
+      <c r="E49" s="88"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="65" t="s">
@@ -2706,10 +2715,10 @@
       <c r="C50" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="79">
+      <c r="D50" s="88">
         <v>0</v>
       </c>
-      <c r="E50" s="79"/>
+      <c r="E50" s="88"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="56" t="s">
@@ -2718,10 +2727,10 @@
       <c r="C51" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="79">
+      <c r="D51" s="88">
         <v>0</v>
       </c>
-      <c r="E51" s="79"/>
+      <c r="E51" s="88"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
@@ -2730,10 +2739,10 @@
       <c r="C52" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="79">
+      <c r="D52" s="88">
         <v>0</v>
       </c>
-      <c r="E52" s="79"/>
+      <c r="E52" s="88"/>
     </row>
     <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
@@ -2742,16 +2751,16 @@
       <c r="C53" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="79">
+      <c r="D53" s="88">
         <v>0</v>
       </c>
-      <c r="E53" s="79"/>
+      <c r="E53" s="88"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
@@ -2774,10 +2783,10 @@
       <c r="C57" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="82" t="s">
+      <c r="D57" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="84"/>
+      <c r="E57" s="93"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="67" t="s">
@@ -2786,10 +2795,10 @@
       <c r="C58" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="100" t="s">
+      <c r="D58" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="101"/>
+      <c r="E58" s="110"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="67" t="s">
@@ -2798,10 +2807,10 @@
       <c r="C59" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="82" t="s">
+      <c r="D59" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="84"/>
+      <c r="E59" s="93"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
@@ -2847,11 +2856,11 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3374,33 +3383,33 @@
       <c r="B15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="117" t="s">
+      <c r="D15" s="134"/>
+      <c r="E15" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="110" t="s">
+      <c r="F15" s="128"/>
+      <c r="G15" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="110" t="s">
+      <c r="H15" s="125"/>
+      <c r="I15" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="111"/>
+      <c r="J15" s="120"/>
       <c r="K15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="102"/>
-      <c r="S15" s="103"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="112"/>
       <c r="T15" s="13" t="s">
         <v>107</v>
       </c>
@@ -3417,23 +3426,23 @@
     <row r="16" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="109"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="105"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="114"/>
       <c r="T16" s="13"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
@@ -3448,23 +3457,23 @@
     <row r="17" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="105"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="114"/>
       <c r="T17" s="13"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
@@ -3479,23 +3488,23 @@
     <row r="18" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="113"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="105"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="114"/>
       <c r="T18" s="13"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
@@ -3510,23 +3519,23 @@
     <row r="19" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="109"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="105"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="114"/>
       <c r="T19" s="13"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
@@ -3541,23 +3550,23 @@
     <row r="20" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="105"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="114"/>
       <c r="T20" s="13"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
@@ -3572,23 +3581,23 @@
     <row r="21" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="105"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="114"/>
       <c r="T21" s="13"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
@@ -3672,9 +3681,9 @@
   </sheetPr>
   <dimension ref="A2:G242"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3692,21 +3701,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="34"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -3772,7 +3781,7 @@
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="39" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G7" s="42">
         <v>0</v>
@@ -3780,7 +3789,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>75</v>
@@ -3790,7 +3799,7 @@
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="42">
         <v>0</v>
@@ -5792,7 +5801,7 @@
   </sheetPr>
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -5806,19 +5815,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
     </row>
     <row r="4" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="79" t="s">
         <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -5832,7 +5841,7 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="135">
+      <c r="C5" s="80">
         <v>3</v>
       </c>
       <c r="D5" s="5"/>
@@ -5940,67 +5949,67 @@
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="136" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="137" t="s">
+      <c r="D17" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="138" t="s">
+      <c r="F17" s="83" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="87"/>
     </row>
     <row r="19" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
@@ -6051,13 +6060,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
@@ -6089,18 +6098,18 @@
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="132"/>
+      <c r="E13" s="142"/>
       <c r="F13" s="30"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="133" t="s">
+      <c r="D14" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="133"/>
+      <c r="E14" s="143"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>

--- a/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
+++ b/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KucharJan\Documents\ProjektPXPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01423C4-32D0-4124-A839-E9BF9DA7A9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFD032-6491-46CA-8FD2-28A0B8C74610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>asistent: Filip; nelze</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Komunikace</t>
   </si>
 </sst>
 </file>
@@ -773,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1137,19 +1143,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1228,7 +1221,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1468,146 +1461,137 @@
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2341,13 +2325,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
       <c r="F1" s="64"/>
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
@@ -2358,28 +2342,28 @@
       <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="107"/>
+      <c r="C3" s="106"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="107"/>
+      <c r="C4" s="106"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="107"/>
+      <c r="C5" s="106"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
@@ -2428,53 +2412,53 @@
       <c r="A13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
@@ -2524,45 +2508,45 @@
       <c r="B26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
@@ -2622,61 +2606,61 @@
       <c r="B40" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
     </row>
     <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="93"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="91"/>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="93"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="91"/>
     </row>
     <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="92"/>
-      <c r="E43" s="93"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="91" t="s">
+      <c r="C44" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="93"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="91"/>
     </row>
     <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="94" t="s">
+      <c r="C45" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
@@ -2688,10 +2672,10 @@
       <c r="C48" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="96" t="s">
+      <c r="D48" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="96"/>
+      <c r="E48" s="95"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
@@ -2759,8 +2743,8 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
@@ -2783,10 +2767,10 @@
       <c r="C57" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="91" t="s">
+      <c r="D57" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="93"/>
+      <c r="E57" s="91"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="67" t="s">
@@ -2795,10 +2779,10 @@
       <c r="C58" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="109" t="s">
+      <c r="D58" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="110"/>
+      <c r="E58" s="93"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="67" t="s">
@@ -2807,21 +2791,26 @@
       <c r="C59" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="91" t="s">
+      <c r="D59" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="93"/>
+      <c r="E59" s="91"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C40:E40"/>
@@ -2832,16 +2821,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2856,11 +2840,11 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15:H15"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3378,38 +3362,26 @@
       <c r="AB14" s="73"/>
       <c r="AC14" s="74"/>
     </row>
-    <row r="15" spans="1:29" s="12" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="12" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="133" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="128"/>
-      <c r="G15" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="120"/>
+      <c r="D15" s="114"/>
       <c r="K15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="112"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="128"/>
       <c r="T15" s="13" t="s">
         <v>107</v>
       </c>
@@ -3425,24 +3397,32 @@
     </row>
     <row r="16" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
+      <c r="B16" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="121"/>
+      <c r="G16" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="119"/>
+      <c r="I16" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="130"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="114"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="133"/>
       <c r="T16" s="13"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
@@ -3457,23 +3437,23 @@
     <row r="17" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="124"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="114"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="133"/>
       <c r="T17" s="13"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
@@ -3488,23 +3468,23 @@
     <row r="18" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="131"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="114"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="133"/>
       <c r="T18" s="13"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
@@ -3519,23 +3499,23 @@
     <row r="19" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="124"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="114"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="133"/>
       <c r="T19" s="13"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
@@ -3550,23 +3530,23 @@
     <row r="20" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="124"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="114"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="133"/>
       <c r="T20" s="13"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
@@ -3581,23 +3561,23 @@
     <row r="21" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="124"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="114"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="133"/>
       <c r="T21" s="13"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
@@ -3610,42 +3590,14 @@
       <c r="AC21" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
+  <mergeCells count="53">
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R16:S16"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N20:O20"/>
@@ -3660,13 +3612,38 @@
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3681,7 +3658,7 @@
   </sheetPr>
   <dimension ref="A2:G242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
@@ -3701,21 +3678,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
       <c r="E3" s="34"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -5815,13 +5792,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
     </row>
     <row r="4" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -6060,13 +6037,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
@@ -6098,18 +6075,18 @@
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="142"/>
+      <c r="E13" s="139"/>
       <c r="F13" s="30"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="143"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>

--- a/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
+++ b/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KucharJan\Documents\ProjektPXPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MachacekDav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFD032-6491-46CA-8FD2-28A0B8C74610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D32308-1B69-486B-89E0-44890CAFA37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Vybrat spolehlivého poskytovatele webhostingu s vysokou dostupností (minimálně 99,9 % uptime).</t>
   </si>
   <si>
-    <t xml:space="preserve">Výběr platformy WordPress	</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zálohování a bezpečnost	</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>Testování systému, rychlé opravy, zajištění podpory v případě problémů.</t>
   </si>
   <si>
-    <t>Instalace SSL certifikátu, aktualizace WordPressu a pluginů, použití bezpečnostních pluginů.</t>
-  </si>
-  <si>
     <t>Rezervační systém</t>
   </si>
   <si>
@@ -389,9 +383,6 @@
     <t>Internetová stránka s rezervací lístků na maturitní ples</t>
   </si>
   <si>
-    <t>Naším cílem je vytvořit webové stránky pomocí platformy WordPress, které budou sloužit jako oficiální stránka našeho maturitního plesu. Stránky budou obsahovat možnost online rezervace vstupenek, informace o programu plesu, a další potřebné informace pro účastníky.</t>
-  </si>
-  <si>
     <t>Cílem projektu je usnadnit rezervaci vstupenek na náš maturitní ples pomocí uživatelsky přívětivého webového rozhraní. Stránky budou sloužit jako hlavní komunikační kanál pro účastníky, což zajistí pohodlný a rychlý přístup k informacím o akci.</t>
   </si>
   <si>
@@ -401,9 +392,6 @@
     <t>Zkrácení času potřebného pro zpracování rezervací oproti tradičním metodám (např. fyzický prodej), s plánem automatizovat 90 % procesů.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vytvoření webových stránek na platformě WordPress. Implementace systému pro online rezervace vstupenek na maturitní ples. Integrace informací o plesu, programu, místě konání a dalších důležitých detailech. </t>
-  </si>
-  <si>
     <t>Revize funkčnosti webu a návrhy na úpravy  a testování a příprava na spuštění</t>
   </si>
   <si>
@@ -429,6 +417,30 @@
   </si>
   <si>
     <t>Komunikace</t>
+  </si>
+  <si>
+    <t>instalace ENDORY</t>
+  </si>
+  <si>
+    <t>Začátek a spuštění ENDORY</t>
+  </si>
+  <si>
+    <t>Výběr a instalace Endory platformy</t>
+  </si>
+  <si>
+    <t>instalace Endory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vytvoření webových stránek na platformě Endora. Implementace systému pro online rezervace vstupenek na maturitní ples. Integrace informací o plesu, programu, místě konání a dalších důležitých detailech. </t>
+  </si>
+  <si>
+    <t>Instalace SSL certifikátu, aktualizace Endora a pluginů, použití bezpečnostních pluginů.</t>
+  </si>
+  <si>
+    <t>Výběr platformy Endora</t>
+  </si>
+  <si>
+    <t>Naším cílem je vytvořit webové stránky pomocí platformy Endora, které budou sloužit jako oficiální stránka našeho maturitního plesu. Stránky budou obsahovat možnost online rezervace vstupenek, informace o programu plesu, a další potřebné informace pro účastníky.</t>
   </si>
 </sst>
 </file>
@@ -1461,76 +1473,127 @@
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1540,58 +1603,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2307,8 +2319,8 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2325,13 +2337,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
       <c r="F1" s="64"/>
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
@@ -2342,28 +2354,28 @@
       <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="106" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="106"/>
+      <c r="B3" s="107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="107"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="106"/>
+      <c r="C4" s="107"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="106"/>
+      <c r="C5" s="107"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
@@ -2412,53 +2424,53 @@
       <c r="A13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
+      <c r="B13" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="100"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
+      <c r="B17" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
@@ -2482,14 +2494,14 @@
     </row>
     <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B22" s="56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
@@ -2508,45 +2520,45 @@
       <c r="B26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="108" t="s">
+      <c r="B27" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="107"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="107"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
@@ -2569,7 +2581,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="56" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C35" s="63">
         <v>45599</v>
@@ -2585,7 +2597,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" s="63">
         <v>45689</v>
@@ -2606,61 +2618,61 @@
       <c r="B40" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="95" t="s">
+      <c r="C40" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
     </row>
     <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="109"/>
-      <c r="E41" s="91"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="93"/>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="109"/>
-      <c r="E42" s="91"/>
+      <c r="C42" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="92"/>
+      <c r="E42" s="93"/>
     </row>
     <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="109"/>
-      <c r="E43" s="91"/>
+      <c r="C43" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="92"/>
+      <c r="E43" s="93"/>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="109"/>
-      <c r="E44" s="91"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="93"/>
     </row>
     <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
+      <c r="C45" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
@@ -2672,20 +2684,20 @@
       <c r="C48" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="95" t="s">
+      <c r="D48" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="95"/>
+      <c r="E48" s="96"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="88">
         <v>0</v>
@@ -2694,7 +2706,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C50" s="56" t="s">
         <v>75</v>
@@ -2706,7 +2718,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="56" t="s">
         <v>80</v>
@@ -2718,7 +2730,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="56" t="s">
         <v>77</v>
@@ -2730,7 +2742,7 @@
     </row>
     <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="56" t="s">
         <v>76</v>
@@ -2743,8 +2755,8 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
@@ -2762,45 +2774,60 @@
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="68" t="s">
+      <c r="D57" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="91"/>
+      <c r="E57" s="93"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="93"/>
+        <v>94</v>
+      </c>
+      <c r="D58" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="110"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="91"/>
+        <v>94</v>
+      </c>
+      <c r="D59" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="93"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B13:E16"/>
+    <mergeCell ref="B17:E19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
@@ -2811,21 +2838,6 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B13:E16"/>
-    <mergeCell ref="B17:E19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2840,7 +2852,7 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
@@ -3365,25 +3377,25 @@
     <row r="15" spans="1:29" s="12" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="114"/>
+        <v>123</v>
+      </c>
+      <c r="C15" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="131"/>
       <c r="K15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="127"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="127"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="128"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="112"/>
       <c r="T15" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
@@ -3398,31 +3410,31 @@
     <row r="16" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="120" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="130"/>
+        <v>122</v>
+      </c>
+      <c r="C16" s="117"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="127"/>
+      <c r="G16" s="124" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="125"/>
+      <c r="I16" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="120"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="132"/>
-      <c r="S16" s="133"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="114"/>
       <c r="T16" s="13"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
@@ -3437,23 +3449,23 @@
     <row r="17" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="124"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="133"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="114"/>
       <c r="T17" s="13"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
@@ -3468,23 +3480,23 @@
     <row r="18" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="131"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="133"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="114"/>
       <c r="T18" s="13"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
@@ -3499,23 +3511,23 @@
     <row r="19" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="124"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="133"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="114"/>
       <c r="T19" s="13"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
@@ -3530,23 +3542,23 @@
     <row r="20" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="124"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="126"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="133"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="114"/>
       <c r="T20" s="13"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
@@ -3561,23 +3573,23 @@
     <row r="21" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="124"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="126"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="133"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="114"/>
       <c r="T21" s="13"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
@@ -3591,13 +3603,38 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N20:O20"/>
@@ -3612,38 +3649,13 @@
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R16:S16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3660,7 +3672,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3716,7 +3728,7 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>80</v>
@@ -3732,10 +3744,10 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="40">
         <v>45575</v>
@@ -3748,17 +3760,17 @@
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D7" s="40">
         <v>45594</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G7" s="42">
         <v>0</v>
@@ -3766,7 +3778,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>75</v>
@@ -3776,7 +3788,7 @@
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G8" s="42">
         <v>0</v>
@@ -5805,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>38</v>
@@ -5928,13 +5940,13 @@
       <c r="A17" s="25"/>
       <c r="B17" s="84"/>
       <c r="C17" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="82" t="s">
         <v>109</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="82" t="s">
-        <v>111</v>
       </c>
       <c r="F17" s="83" t="s">
         <v>84</v>

--- a/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
+++ b/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MachacekDav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KucharJan\Documents\ProjektPXPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D32308-1B69-486B-89E0-44890CAFA37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFD032-6491-46CA-8FD2-28A0B8C74610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -317,6 +317,9 @@
     <t>Vybrat spolehlivého poskytovatele webhostingu s vysokou dostupností (minimálně 99,9 % uptime).</t>
   </si>
   <si>
+    <t xml:space="preserve">Výběr platformy WordPress	</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zálohování a bezpečnost	</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
     <t>Testování systému, rychlé opravy, zajištění podpory v případě problémů.</t>
   </si>
   <si>
+    <t>Instalace SSL certifikátu, aktualizace WordPressu a pluginů, použití bezpečnostních pluginů.</t>
+  </si>
+  <si>
     <t>Rezervační systém</t>
   </si>
   <si>
@@ -383,6 +389,9 @@
     <t>Internetová stránka s rezervací lístků na maturitní ples</t>
   </si>
   <si>
+    <t>Naším cílem je vytvořit webové stránky pomocí platformy WordPress, které budou sloužit jako oficiální stránka našeho maturitního plesu. Stránky budou obsahovat možnost online rezervace vstupenek, informace o programu plesu, a další potřebné informace pro účastníky.</t>
+  </si>
+  <si>
     <t>Cílem projektu je usnadnit rezervaci vstupenek na náš maturitní ples pomocí uživatelsky přívětivého webového rozhraní. Stránky budou sloužit jako hlavní komunikační kanál pro účastníky, což zajistí pohodlný a rychlý přístup k informacím o akci.</t>
   </si>
   <si>
@@ -392,6 +401,9 @@
     <t>Zkrácení času potřebného pro zpracování rezervací oproti tradičním metodám (např. fyzický prodej), s plánem automatizovat 90 % procesů.</t>
   </si>
   <si>
+    <t xml:space="preserve">Vytvoření webových stránek na platformě WordPress. Implementace systému pro online rezervace vstupenek na maturitní ples. Integrace informací o plesu, programu, místě konání a dalších důležitých detailech. </t>
+  </si>
+  <si>
     <t>Revize funkčnosti webu a návrhy na úpravy  a testování a příprava na spuštění</t>
   </si>
   <si>
@@ -417,30 +429,6 @@
   </si>
   <si>
     <t>Komunikace</t>
-  </si>
-  <si>
-    <t>instalace ENDORY</t>
-  </si>
-  <si>
-    <t>Začátek a spuštění ENDORY</t>
-  </si>
-  <si>
-    <t>Výběr a instalace Endory platformy</t>
-  </si>
-  <si>
-    <t>instalace Endory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vytvoření webových stránek na platformě Endora. Implementace systému pro online rezervace vstupenek na maturitní ples. Integrace informací o plesu, programu, místě konání a dalších důležitých detailech. </t>
-  </si>
-  <si>
-    <t>Instalace SSL certifikátu, aktualizace Endora a pluginů, použití bezpečnostních pluginů.</t>
-  </si>
-  <si>
-    <t>Výběr platformy Endora</t>
-  </si>
-  <si>
-    <t>Naším cílem je vytvořit webové stránky pomocí platformy Endora, které budou sloužit jako oficiální stránka našeho maturitního plesu. Stránky budou obsahovat možnost online rezervace vstupenek, informace o programu plesu, a další potřebné informace pro účastníky.</t>
   </si>
 </sst>
 </file>
@@ -1473,69 +1461,117 @@
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1543,67 +1579,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2319,8 +2307,8 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E16"/>
+    <sheetView showGridLines="0" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2337,13 +2325,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
       <c r="F1" s="64"/>
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
@@ -2354,28 +2342,28 @@
       <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="107" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="107"/>
+      <c r="B3" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="106"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="107"/>
+      <c r="C4" s="106"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="107"/>
+      <c r="C5" s="106"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
@@ -2424,53 +2412,53 @@
       <c r="A13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="B13" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
+      <c r="B17" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
@@ -2494,14 +2482,14 @@
     </row>
     <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B22" s="56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
@@ -2520,45 +2508,45 @@
       <c r="B26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="90" t="s">
+      <c r="B27" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
@@ -2581,7 +2569,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="56" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C35" s="63">
         <v>45599</v>
@@ -2597,7 +2585,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C37" s="63">
         <v>45689</v>
@@ -2618,61 +2606,61 @@
       <c r="B40" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
     </row>
     <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="93"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="91"/>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="93"/>
+      <c r="C42" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="109"/>
+      <c r="E42" s="91"/>
     </row>
     <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="92"/>
-      <c r="E43" s="93"/>
+      <c r="C43" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="109"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="93"/>
+      <c r="C44" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="109"/>
+      <c r="E44" s="91"/>
     </row>
     <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
+      <c r="C45" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
@@ -2684,20 +2672,20 @@
       <c r="C48" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="96" t="s">
+      <c r="D48" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="96"/>
+      <c r="E48" s="95"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D49" s="88">
         <v>0</v>
@@ -2706,7 +2694,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C50" s="56" t="s">
         <v>75</v>
@@ -2718,7 +2706,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="56" t="s">
         <v>80</v>
@@ -2730,7 +2718,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C52" s="56" t="s">
         <v>77</v>
@@ -2742,7 +2730,7 @@
     </row>
     <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53" s="56" t="s">
         <v>76</v>
@@ -2755,8 +2743,8 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
@@ -2774,50 +2762,55 @@
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="93"/>
+      <c r="D57" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="91"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C58" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" s="110"/>
+        <v>95</v>
+      </c>
+      <c r="D58" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="93"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C59" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="93"/>
+        <v>95</v>
+      </c>
+      <c r="D59" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="91"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="C40:E40"/>
@@ -2828,16 +2821,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2852,7 +2840,7 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
@@ -3377,25 +3365,25 @@
     <row r="15" spans="1:29" s="12" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="131"/>
+        <v>127</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="114"/>
       <c r="K15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="112"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="128"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="128"/>
       <c r="T15" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
@@ -3410,31 +3398,31 @@
     <row r="16" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="124" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="120"/>
+        <v>126</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="121"/>
+      <c r="G16" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="119"/>
+      <c r="I16" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="130"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="114"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="133"/>
       <c r="T16" s="13"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
@@ -3449,23 +3437,23 @@
     <row r="17" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="124"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="114"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="126"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="126"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="133"/>
       <c r="T17" s="13"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
@@ -3480,23 +3468,23 @@
     <row r="18" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="131"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="114"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="126"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="133"/>
       <c r="T18" s="13"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
@@ -3511,23 +3499,23 @@
     <row r="19" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="124"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="114"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="126"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="126"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="133"/>
       <c r="T19" s="13"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
@@ -3542,23 +3530,23 @@
     <row r="20" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="124"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="114"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="126"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="126"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="133"/>
       <c r="T20" s="13"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
@@ -3573,23 +3561,23 @@
     <row r="21" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="124"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="114"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="126"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="126"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="133"/>
       <c r="T21" s="13"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
@@ -3603,38 +3591,13 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R16:S16"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N20:O20"/>
@@ -3649,13 +3612,38 @@
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3672,7 +3660,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3716,7 @@
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>80</v>
@@ -3744,10 +3732,10 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D6" s="40">
         <v>45575</v>
@@ -3760,17 +3748,17 @@
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D7" s="40">
         <v>45594</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="39" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G7" s="42">
         <v>0</v>
@@ -3778,7 +3766,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>75</v>
@@ -3788,7 +3776,7 @@
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G8" s="42">
         <v>0</v>
@@ -5817,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>38</v>
@@ -5940,13 +5928,13 @@
       <c r="A17" s="25"/>
       <c r="B17" s="84"/>
       <c r="C17" s="81" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F17" s="83" t="s">
         <v>84</v>

--- a/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
+++ b/Lean-Projektovy-Management-Prazdna-sablona-JiriBenedikt.com-CZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MachacekDav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KucharJan\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D32308-1B69-486B-89E0-44890CAFA37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29FF7C-7B76-4203-AD2B-56AEE9B1FDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zakládací listina " sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t>Zakládací listina projektu</t>
   </si>
@@ -392,55 +392,61 @@
     <t>Zkrácení času potřebného pro zpracování rezervací oproti tradičním metodám (např. fyzický prodej), s plánem automatizovat 90 % procesů.</t>
   </si>
   <si>
+    <t>výběr a nastavení pluginů</t>
+  </si>
+  <si>
+    <t>Grafický návrh</t>
+  </si>
+  <si>
+    <t>50% Tomáš</t>
+  </si>
+  <si>
+    <t>Registrace na wordpress, vytvoření githubu a násladné pozvání všech členů.</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Komunikace</t>
+  </si>
+  <si>
+    <t>Začátek a spuštění ENDORY</t>
+  </si>
+  <si>
+    <t>Výběr a instalace Endory platformy</t>
+  </si>
+  <si>
+    <t>instalace Endory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vytvoření webových stránek na platformě Endora. Implementace systému pro online rezervace vstupenek na maturitní ples. Integrace informací o plesu, programu, místě konání a dalších důležitých detailech. </t>
+  </si>
+  <si>
+    <t>Instalace SSL certifikátu, aktualizace Endora a pluginů, použití bezpečnostních pluginů.</t>
+  </si>
+  <si>
+    <t>Výběr platformy Endora</t>
+  </si>
+  <si>
+    <t>Naším cílem je vytvořit webové stránky pomocí platformy Endora, které budou sloužit jako oficiální stránka našeho maturitního plesu. Stránky budou obsahovat možnost online rezervace vstupenek, informace o programu plesu, a další potřebné informace pro účastníky.</t>
+  </si>
+  <si>
     <t>Revize funkčnosti webu a návrhy na úpravy  a testování a příprava na spuštění</t>
   </si>
   <si>
-    <t>výběr a nastavení pluginů</t>
-  </si>
-  <si>
-    <t>Honza kuchař</t>
-  </si>
-  <si>
-    <t>Grafický návrh</t>
-  </si>
-  <si>
-    <t>50% Tomáš</t>
-  </si>
-  <si>
-    <t>Registrace na wordpress, vytvoření githubu a násladné pozvání všech členů.</t>
-  </si>
-  <si>
-    <t>asistent: Filip; nelze</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>Komunikace</t>
-  </si>
-  <si>
-    <t>instalace ENDORY</t>
-  </si>
-  <si>
-    <t>Začátek a spuštění ENDORY</t>
-  </si>
-  <si>
-    <t>Výběr a instalace Endory platformy</t>
-  </si>
-  <si>
-    <t>instalace Endory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vytvoření webových stránek na platformě Endora. Implementace systému pro online rezervace vstupenek na maturitní ples. Integrace informací o plesu, programu, místě konání a dalších důležitých detailech. </t>
-  </si>
-  <si>
-    <t>Instalace SSL certifikátu, aktualizace Endora a pluginů, použití bezpečnostních pluginů.</t>
-  </si>
-  <si>
-    <t>Výběr platformy Endora</t>
-  </si>
-  <si>
-    <t>Naším cílem je vytvořit webové stránky pomocí platformy Endora, které budou sloužit jako oficiální stránka našeho maturitního plesu. Stránky budou obsahovat možnost online rezervace vstupenek, informace o programu plesu, a další potřebné informace pro účastníky.</t>
+    <t>Honza Kuchař</t>
+  </si>
+  <si>
+    <t>Navrh databaze na endore</t>
+  </si>
+  <si>
+    <t>nelze</t>
+  </si>
+  <si>
+    <t>20.11.2024</t>
+  </si>
+  <si>
+    <t>asistent: Filip;</t>
   </si>
 </sst>
 </file>
@@ -791,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1159,19 +1165,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1206,6 +1199,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1233,7 +1257,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -1470,6 +1494,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1537,12 +1564,12 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1558,28 +1585,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,12 +1620,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1624,6 +1645,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="19" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2319,7 +2358,7 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:E16"/>
     </sheetView>
   </sheetViews>
@@ -2337,13 +2376,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
       <c r="F1" s="64"/>
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
@@ -2354,28 +2393,28 @@
       <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="107"/>
+      <c r="C3" s="108"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="107"/>
+      <c r="C4" s="108"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="107"/>
+      <c r="C5" s="108"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
@@ -2424,53 +2463,53 @@
       <c r="A13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="B13" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="106"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
     </row>
     <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="59"/>
@@ -2520,45 +2559,45 @@
       <c r="B26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="90" t="s">
+      <c r="B27" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
     </row>
     <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
@@ -2581,7 +2620,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C35" s="63">
         <v>45599</v>
@@ -2618,61 +2657,61 @@
       <c r="B40" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
     </row>
     <row r="41" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="94"/>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C42" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
     </row>
     <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C43" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="92"/>
-      <c r="E43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="94"/>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="91" t="s">
+      <c r="C44" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="94"/>
     </row>
     <row r="45" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
+      <c r="C45" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="55" t="s">
@@ -2684,25 +2723,25 @@
       <c r="C48" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="96" t="s">
+      <c r="D48" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="96"/>
+      <c r="E48" s="97"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C49" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="88">
+      <c r="D49" s="89">
         <v>0</v>
       </c>
-      <c r="E49" s="88"/>
+      <c r="E49" s="89"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="65" t="s">
@@ -2711,10 +2750,10 @@
       <c r="C50" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="88">
+      <c r="D50" s="89">
         <v>0</v>
       </c>
-      <c r="E50" s="88"/>
+      <c r="E50" s="89"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="56" t="s">
@@ -2723,10 +2762,10 @@
       <c r="C51" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="88">
+      <c r="D51" s="89">
         <v>0</v>
       </c>
-      <c r="E51" s="88"/>
+      <c r="E51" s="89"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="56" t="s">
@@ -2735,10 +2774,10 @@
       <c r="C52" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="88">
+      <c r="D52" s="89">
         <v>0</v>
       </c>
-      <c r="E52" s="88"/>
+      <c r="E52" s="89"/>
     </row>
     <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="56" t="s">
@@ -2747,16 +2786,16 @@
       <c r="C53" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="88">
+      <c r="D53" s="89">
         <v>0</v>
       </c>
-      <c r="E53" s="88"/>
+      <c r="E53" s="89"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="69"/>
       <c r="C54" s="69"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="55" t="s">
@@ -2779,10 +2818,10 @@
       <c r="C57" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="91" t="s">
+      <c r="D57" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="93"/>
+      <c r="E57" s="94"/>
     </row>
     <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="67" t="s">
@@ -2791,10 +2830,10 @@
       <c r="C58" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="109" t="s">
+      <c r="D58" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="110"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="67" t="s">
@@ -2803,10 +2842,10 @@
       <c r="C59" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="91" t="s">
+      <c r="D59" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="93"/>
+      <c r="E59" s="94"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70"/>
@@ -2852,11 +2891,11 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="14" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16:J16"/>
+      <selection pane="bottomRight" activeCell="P18" sqref="P18:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2982,67 +3021,74 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="5">
+        <v>45552</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4+7</f>
         <v>45559</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:J4" si="0">D4+7</f>
         <v>45566</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
         <v>45573</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
         <v>45580</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
         <v>45587</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
         <v>45594</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
         <v>45601</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="6">
         <v>45608</v>
-      </c>
-      <c r="K4" s="6">
-        <v>45615</v>
       </c>
       <c r="L4" s="5">
         <f>K4+7</f>
-        <v>45622</v>
+        <v>45615</v>
       </c>
       <c r="M4" s="5">
         <f>L4+7</f>
+        <v>45622</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" ref="N4:S4" si="1">M4+7</f>
         <v>45629</v>
       </c>
-      <c r="N4" s="5">
-        <f t="shared" ref="N4:S4" si="0">M4+7</f>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
         <v>45636</v>
       </c>
-      <c r="O4" s="5">
-        <f t="shared" si="0"/>
+      <c r="P4" s="5">
+        <f t="shared" si="1"/>
         <v>45643</v>
       </c>
-      <c r="P4" s="5">
-        <f t="shared" si="0"/>
+      <c r="Q4" s="5">
+        <f t="shared" si="1"/>
         <v>45650</v>
       </c>
-      <c r="Q4" s="5">
-        <f t="shared" si="0"/>
+      <c r="R4" s="5">
+        <f t="shared" si="1"/>
         <v>45657</v>
       </c>
-      <c r="R4" s="5">
-        <f t="shared" si="0"/>
+      <c r="S4" s="5">
+        <f t="shared" si="1"/>
         <v>45664</v>
-      </c>
-      <c r="S4" s="5">
-        <f t="shared" si="0"/>
-        <v>45671</v>
       </c>
       <c r="T4" s="6">
         <f>S4+6</f>
-        <v>45677</v>
+        <v>45670</v>
       </c>
       <c r="U4" s="72"/>
       <c r="V4" s="72"/>
@@ -3377,23 +3423,23 @@
     <row r="15" spans="1:29" s="12" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="K15" s="11" t="s">
+      <c r="D15" s="126"/>
+      <c r="K15" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="111"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
       <c r="T15" s="13" t="s">
         <v>105</v>
       </c>
@@ -3410,31 +3456,35 @@
     <row r="16" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="126" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="124" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="120"/>
+        <v>119</v>
+      </c>
+      <c r="C16" s="118"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="127" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="128"/>
+      <c r="G16" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="142"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="114"/>
+      <c r="L16" s="125" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="126"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="S16" s="144"/>
       <c r="T16" s="13"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
@@ -3449,23 +3499,23 @@
     <row r="17" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="119"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="114"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="115"/>
       <c r="T17" s="13"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
@@ -3480,23 +3530,23 @@
     <row r="18" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="114"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="115"/>
       <c r="T18" s="13"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
@@ -3511,23 +3561,23 @@
     <row r="19" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="119"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="114"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="114"/>
+      <c r="S19" s="115"/>
       <c r="T19" s="13"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
@@ -3542,23 +3592,23 @@
     <row r="20" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="114"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="115"/>
       <c r="T20" s="13"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
@@ -3573,23 +3623,23 @@
     <row r="21" spans="1:29" s="12" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="114"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="115"/>
       <c r="T21" s="13"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
@@ -3611,7 +3661,7 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
@@ -3622,15 +3672,15 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I20:J20"/>
@@ -3641,7 +3691,6 @@
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P20:Q20"/>
@@ -3649,6 +3698,7 @@
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="R20:S20"/>
@@ -3672,7 +3722,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3690,21 +3740,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
     </row>
     <row r="3" spans="2:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
       <c r="E3" s="34"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
@@ -3744,7 +3794,7 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>110</v>
@@ -3760,17 +3810,19 @@
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D7" s="40">
         <v>45594</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="F7" s="39" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G7" s="42">
         <v>0</v>
@@ -3778,7 +3830,7 @@
     </row>
     <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>75</v>
@@ -3786,21 +3838,31 @@
       <c r="D8" s="40">
         <v>45594</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="145" t="s">
+        <v>132</v>
+      </c>
       <c r="F8" s="39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G8" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="40">
+        <v>45603</v>
+      </c>
       <c r="E9" s="40"/>
       <c r="F9" s="39"/>
-      <c r="G9" s="42"/>
+      <c r="G9" s="42">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
@@ -5804,13 +5866,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
     </row>
     <row r="4" spans="2:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -5943,7 +6005,7 @@
         <v>107</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="82" t="s">
         <v>109</v>
@@ -6049,13 +6111,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="31"/>
@@ -6087,18 +6149,18 @@
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="139" t="s">
+      <c r="D13" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="139"/>
+      <c r="E13" s="138"/>
       <c r="F13" s="30"/>
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="140" t="s">
+      <c r="D14" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="140"/>
+      <c r="E14" s="139"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
